--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -124,7 +124,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,12 +135,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -192,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -251,14 +245,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -341,16 +327,16 @@
   <dimension ref="A2:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="3" sqref="A13 A15 C13 C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="97.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,26 +413,26 @@
       <c r="D11" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16" t="n">
-        <v>44720</v>
+      <c r="C13" s="11" t="n">
+        <v>44721</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16" t="n">
-        <v>44720</v>
+      <c r="C15" s="11" t="n">
+        <v>44721</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -487,7 +473,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="4" sqref="A13 A15 C13 C15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,7 +499,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="4" sqref="A13 A15 C13 C15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">Задание</t>
   </si>
   <si>
+    <t xml:space="preserve">Минута</t>
+  </si>
+  <si>
     <t xml:space="preserve">Выполнение</t>
   </si>
   <si>
@@ -64,6 +67,54 @@
   </si>
   <si>
     <t xml:space="preserve">Удалить весь тестовый код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В моделях оставить только use Illuminate\Database\Eloquent\Model; - и всё будет работать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убрать в методах моделей объявление массивов и проверить код, где они используются.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарии к классам и методам — проверить, сделать однотипными.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарии к классам</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">См. как в моделях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: iconv_strlen заменить на mb_strlen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users::checkName, checkPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: comparePasswords - return $password_1 == $password_2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$user = Users::where('email', '=', $email)   →get(); - получить 1-й объект:  →first();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4'45“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод first возвращает первый элемент из коллекции, который проходит указанную проверку истинности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возвращать нужно либо объект, либо NULL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5'00“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">См. все методы(в моделях, особенно Users)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +175,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +186,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -186,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +256,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,6 +281,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,6 +296,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,8 +312,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -324,22 +409,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D1048576"/>
+  <dimension ref="A2:AMJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="3" sqref="A13 A15 C13 C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="97.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="80.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="2" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -349,111 +435,1246 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14" t="n">
+        <v>44721</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14" t="n">
+        <v>44721</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14" t="n">
+        <v>44722</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <v>44720</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14" t="n">
+        <v>44722</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="0"/>
+      <c r="AN20" s="0"/>
+      <c r="AO20" s="0"/>
+      <c r="AP20" s="0"/>
+      <c r="AQ20" s="0"/>
+      <c r="AR20" s="0"/>
+      <c r="AS20" s="0"/>
+      <c r="AT20" s="0"/>
+      <c r="AU20" s="0"/>
+      <c r="AV20" s="0"/>
+      <c r="AW20" s="0"/>
+      <c r="AX20" s="0"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="0"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
+      <c r="BD20" s="0"/>
+      <c r="BE20" s="0"/>
+      <c r="BF20" s="0"/>
+      <c r="BG20" s="0"/>
+      <c r="BH20" s="0"/>
+      <c r="BI20" s="0"/>
+      <c r="BJ20" s="0"/>
+      <c r="BK20" s="0"/>
+      <c r="BL20" s="0"/>
+      <c r="BM20" s="0"/>
+      <c r="BN20" s="0"/>
+      <c r="BO20" s="0"/>
+      <c r="BP20" s="0"/>
+      <c r="BQ20" s="0"/>
+      <c r="BR20" s="0"/>
+      <c r="BS20" s="0"/>
+      <c r="BT20" s="0"/>
+      <c r="BU20" s="0"/>
+      <c r="BV20" s="0"/>
+      <c r="BW20" s="0"/>
+      <c r="BX20" s="0"/>
+      <c r="BY20" s="0"/>
+      <c r="BZ20" s="0"/>
+      <c r="CA20" s="0"/>
+      <c r="CB20" s="0"/>
+      <c r="CC20" s="0"/>
+      <c r="CD20" s="0"/>
+      <c r="CE20" s="0"/>
+      <c r="CF20" s="0"/>
+      <c r="CG20" s="0"/>
+      <c r="CH20" s="0"/>
+      <c r="CI20" s="0"/>
+      <c r="CJ20" s="0"/>
+      <c r="CK20" s="0"/>
+      <c r="CL20" s="0"/>
+      <c r="CM20" s="0"/>
+      <c r="CN20" s="0"/>
+      <c r="CO20" s="0"/>
+      <c r="CP20" s="0"/>
+      <c r="CQ20" s="0"/>
+      <c r="CR20" s="0"/>
+      <c r="CS20" s="0"/>
+      <c r="CT20" s="0"/>
+      <c r="CU20" s="0"/>
+      <c r="CV20" s="0"/>
+      <c r="CW20" s="0"/>
+      <c r="CX20" s="0"/>
+      <c r="CY20" s="0"/>
+      <c r="CZ20" s="0"/>
+      <c r="DA20" s="0"/>
+      <c r="DB20" s="0"/>
+      <c r="DC20" s="0"/>
+      <c r="DD20" s="0"/>
+      <c r="DE20" s="0"/>
+      <c r="DF20" s="0"/>
+      <c r="DG20" s="0"/>
+      <c r="DH20" s="0"/>
+      <c r="DI20" s="0"/>
+      <c r="DJ20" s="0"/>
+      <c r="DK20" s="0"/>
+      <c r="DL20" s="0"/>
+      <c r="DM20" s="0"/>
+      <c r="DN20" s="0"/>
+      <c r="DO20" s="0"/>
+      <c r="DP20" s="0"/>
+      <c r="DQ20" s="0"/>
+      <c r="DR20" s="0"/>
+      <c r="DS20" s="0"/>
+      <c r="DT20" s="0"/>
+      <c r="DU20" s="0"/>
+      <c r="DV20" s="0"/>
+      <c r="DW20" s="0"/>
+      <c r="DX20" s="0"/>
+      <c r="DY20" s="0"/>
+      <c r="DZ20" s="0"/>
+      <c r="EA20" s="0"/>
+      <c r="EB20" s="0"/>
+      <c r="EC20" s="0"/>
+      <c r="ED20" s="0"/>
+      <c r="EE20" s="0"/>
+      <c r="EF20" s="0"/>
+      <c r="EG20" s="0"/>
+      <c r="EH20" s="0"/>
+      <c r="EI20" s="0"/>
+      <c r="EJ20" s="0"/>
+      <c r="EK20" s="0"/>
+      <c r="EL20" s="0"/>
+      <c r="EM20" s="0"/>
+      <c r="EN20" s="0"/>
+      <c r="EO20" s="0"/>
+      <c r="EP20" s="0"/>
+      <c r="EQ20" s="0"/>
+      <c r="ER20" s="0"/>
+      <c r="ES20" s="0"/>
+      <c r="ET20" s="0"/>
+      <c r="EU20" s="0"/>
+      <c r="EV20" s="0"/>
+      <c r="EW20" s="0"/>
+      <c r="EX20" s="0"/>
+      <c r="EY20" s="0"/>
+      <c r="EZ20" s="0"/>
+      <c r="FA20" s="0"/>
+      <c r="FB20" s="0"/>
+      <c r="FC20" s="0"/>
+      <c r="FD20" s="0"/>
+      <c r="FE20" s="0"/>
+      <c r="FF20" s="0"/>
+      <c r="FG20" s="0"/>
+      <c r="FH20" s="0"/>
+      <c r="FI20" s="0"/>
+      <c r="FJ20" s="0"/>
+      <c r="FK20" s="0"/>
+      <c r="FL20" s="0"/>
+      <c r="FM20" s="0"/>
+      <c r="FN20" s="0"/>
+      <c r="FO20" s="0"/>
+      <c r="FP20" s="0"/>
+      <c r="FQ20" s="0"/>
+      <c r="FR20" s="0"/>
+      <c r="FS20" s="0"/>
+      <c r="FT20" s="0"/>
+      <c r="FU20" s="0"/>
+      <c r="FV20" s="0"/>
+      <c r="FW20" s="0"/>
+      <c r="FX20" s="0"/>
+      <c r="FY20" s="0"/>
+      <c r="FZ20" s="0"/>
+      <c r="GA20" s="0"/>
+      <c r="GB20" s="0"/>
+      <c r="GC20" s="0"/>
+      <c r="GD20" s="0"/>
+      <c r="GE20" s="0"/>
+      <c r="GF20" s="0"/>
+      <c r="GG20" s="0"/>
+      <c r="GH20" s="0"/>
+      <c r="GI20" s="0"/>
+      <c r="GJ20" s="0"/>
+      <c r="GK20" s="0"/>
+      <c r="GL20" s="0"/>
+      <c r="GM20" s="0"/>
+      <c r="GN20" s="0"/>
+      <c r="GO20" s="0"/>
+      <c r="GP20" s="0"/>
+      <c r="GQ20" s="0"/>
+      <c r="GR20" s="0"/>
+      <c r="GS20" s="0"/>
+      <c r="GT20" s="0"/>
+      <c r="GU20" s="0"/>
+      <c r="GV20" s="0"/>
+      <c r="GW20" s="0"/>
+      <c r="GX20" s="0"/>
+      <c r="GY20" s="0"/>
+      <c r="GZ20" s="0"/>
+      <c r="HA20" s="0"/>
+      <c r="HB20" s="0"/>
+      <c r="HC20" s="0"/>
+      <c r="HD20" s="0"/>
+      <c r="HE20" s="0"/>
+      <c r="HF20" s="0"/>
+      <c r="HG20" s="0"/>
+      <c r="HH20" s="0"/>
+      <c r="HI20" s="0"/>
+      <c r="HJ20" s="0"/>
+      <c r="HK20" s="0"/>
+      <c r="HL20" s="0"/>
+      <c r="HM20" s="0"/>
+      <c r="HN20" s="0"/>
+      <c r="HO20" s="0"/>
+      <c r="HP20" s="0"/>
+      <c r="HQ20" s="0"/>
+      <c r="HR20" s="0"/>
+      <c r="HS20" s="0"/>
+      <c r="HT20" s="0"/>
+      <c r="HU20" s="0"/>
+      <c r="HV20" s="0"/>
+      <c r="HW20" s="0"/>
+      <c r="HX20" s="0"/>
+      <c r="HY20" s="0"/>
+      <c r="HZ20" s="0"/>
+      <c r="IA20" s="0"/>
+      <c r="IB20" s="0"/>
+      <c r="IC20" s="0"/>
+      <c r="ID20" s="0"/>
+      <c r="IE20" s="0"/>
+      <c r="IF20" s="0"/>
+      <c r="IG20" s="0"/>
+      <c r="IH20" s="0"/>
+      <c r="II20" s="0"/>
+      <c r="IJ20" s="0"/>
+      <c r="IK20" s="0"/>
+      <c r="IL20" s="0"/>
+      <c r="IM20" s="0"/>
+      <c r="IN20" s="0"/>
+      <c r="IO20" s="0"/>
+      <c r="IP20" s="0"/>
+      <c r="IQ20" s="0"/>
+      <c r="IR20" s="0"/>
+      <c r="IS20" s="0"/>
+      <c r="IT20" s="0"/>
+      <c r="IU20" s="0"/>
+      <c r="IV20" s="0"/>
+      <c r="IW20" s="0"/>
+      <c r="IX20" s="0"/>
+      <c r="IY20" s="0"/>
+      <c r="IZ20" s="0"/>
+      <c r="JA20" s="0"/>
+      <c r="JB20" s="0"/>
+      <c r="JC20" s="0"/>
+      <c r="JD20" s="0"/>
+      <c r="JE20" s="0"/>
+      <c r="JF20" s="0"/>
+      <c r="JG20" s="0"/>
+      <c r="JH20" s="0"/>
+      <c r="JI20" s="0"/>
+      <c r="JJ20" s="0"/>
+      <c r="JK20" s="0"/>
+      <c r="JL20" s="0"/>
+      <c r="JM20" s="0"/>
+      <c r="JN20" s="0"/>
+      <c r="JO20" s="0"/>
+      <c r="JP20" s="0"/>
+      <c r="JQ20" s="0"/>
+      <c r="JR20" s="0"/>
+      <c r="JS20" s="0"/>
+      <c r="JT20" s="0"/>
+      <c r="JU20" s="0"/>
+      <c r="JV20" s="0"/>
+      <c r="JW20" s="0"/>
+      <c r="JX20" s="0"/>
+      <c r="JY20" s="0"/>
+      <c r="JZ20" s="0"/>
+      <c r="KA20" s="0"/>
+      <c r="KB20" s="0"/>
+      <c r="KC20" s="0"/>
+      <c r="KD20" s="0"/>
+      <c r="KE20" s="0"/>
+      <c r="KF20" s="0"/>
+      <c r="KG20" s="0"/>
+      <c r="KH20" s="0"/>
+      <c r="KI20" s="0"/>
+      <c r="KJ20" s="0"/>
+      <c r="KK20" s="0"/>
+      <c r="KL20" s="0"/>
+      <c r="KM20" s="0"/>
+      <c r="KN20" s="0"/>
+      <c r="KO20" s="0"/>
+      <c r="KP20" s="0"/>
+      <c r="KQ20" s="0"/>
+      <c r="KR20" s="0"/>
+      <c r="KS20" s="0"/>
+      <c r="KT20" s="0"/>
+      <c r="KU20" s="0"/>
+      <c r="KV20" s="0"/>
+      <c r="KW20" s="0"/>
+      <c r="KX20" s="0"/>
+      <c r="KY20" s="0"/>
+      <c r="KZ20" s="0"/>
+      <c r="LA20" s="0"/>
+      <c r="LB20" s="0"/>
+      <c r="LC20" s="0"/>
+      <c r="LD20" s="0"/>
+      <c r="LE20" s="0"/>
+      <c r="LF20" s="0"/>
+      <c r="LG20" s="0"/>
+      <c r="LH20" s="0"/>
+      <c r="LI20" s="0"/>
+      <c r="LJ20" s="0"/>
+      <c r="LK20" s="0"/>
+      <c r="LL20" s="0"/>
+      <c r="LM20" s="0"/>
+      <c r="LN20" s="0"/>
+      <c r="LO20" s="0"/>
+      <c r="LP20" s="0"/>
+      <c r="LQ20" s="0"/>
+      <c r="LR20" s="0"/>
+      <c r="LS20" s="0"/>
+      <c r="LT20" s="0"/>
+      <c r="LU20" s="0"/>
+      <c r="LV20" s="0"/>
+      <c r="LW20" s="0"/>
+      <c r="LX20" s="0"/>
+      <c r="LY20" s="0"/>
+      <c r="LZ20" s="0"/>
+      <c r="MA20" s="0"/>
+      <c r="MB20" s="0"/>
+      <c r="MC20" s="0"/>
+      <c r="MD20" s="0"/>
+      <c r="ME20" s="0"/>
+      <c r="MF20" s="0"/>
+      <c r="MG20" s="0"/>
+      <c r="MH20" s="0"/>
+      <c r="MI20" s="0"/>
+      <c r="MJ20" s="0"/>
+      <c r="MK20" s="0"/>
+      <c r="ML20" s="0"/>
+      <c r="MM20" s="0"/>
+      <c r="MN20" s="0"/>
+      <c r="MO20" s="0"/>
+      <c r="MP20" s="0"/>
+      <c r="MQ20" s="0"/>
+      <c r="MR20" s="0"/>
+      <c r="MS20" s="0"/>
+      <c r="MT20" s="0"/>
+      <c r="MU20" s="0"/>
+      <c r="MV20" s="0"/>
+      <c r="MW20" s="0"/>
+      <c r="MX20" s="0"/>
+      <c r="MY20" s="0"/>
+      <c r="MZ20" s="0"/>
+      <c r="NA20" s="0"/>
+      <c r="NB20" s="0"/>
+      <c r="NC20" s="0"/>
+      <c r="ND20" s="0"/>
+      <c r="NE20" s="0"/>
+      <c r="NF20" s="0"/>
+      <c r="NG20" s="0"/>
+      <c r="NH20" s="0"/>
+      <c r="NI20" s="0"/>
+      <c r="NJ20" s="0"/>
+      <c r="NK20" s="0"/>
+      <c r="NL20" s="0"/>
+      <c r="NM20" s="0"/>
+      <c r="NN20" s="0"/>
+      <c r="NO20" s="0"/>
+      <c r="NP20" s="0"/>
+      <c r="NQ20" s="0"/>
+      <c r="NR20" s="0"/>
+      <c r="NS20" s="0"/>
+      <c r="NT20" s="0"/>
+      <c r="NU20" s="0"/>
+      <c r="NV20" s="0"/>
+      <c r="NW20" s="0"/>
+      <c r="NX20" s="0"/>
+      <c r="NY20" s="0"/>
+      <c r="NZ20" s="0"/>
+      <c r="OA20" s="0"/>
+      <c r="OB20" s="0"/>
+      <c r="OC20" s="0"/>
+      <c r="OD20" s="0"/>
+      <c r="OE20" s="0"/>
+      <c r="OF20" s="0"/>
+      <c r="OG20" s="0"/>
+      <c r="OH20" s="0"/>
+      <c r="OI20" s="0"/>
+      <c r="OJ20" s="0"/>
+      <c r="OK20" s="0"/>
+      <c r="OL20" s="0"/>
+      <c r="OM20" s="0"/>
+      <c r="ON20" s="0"/>
+      <c r="OO20" s="0"/>
+      <c r="OP20" s="0"/>
+      <c r="OQ20" s="0"/>
+      <c r="OR20" s="0"/>
+      <c r="OS20" s="0"/>
+      <c r="OT20" s="0"/>
+      <c r="OU20" s="0"/>
+      <c r="OV20" s="0"/>
+      <c r="OW20" s="0"/>
+      <c r="OX20" s="0"/>
+      <c r="OY20" s="0"/>
+      <c r="OZ20" s="0"/>
+      <c r="PA20" s="0"/>
+      <c r="PB20" s="0"/>
+      <c r="PC20" s="0"/>
+      <c r="PD20" s="0"/>
+      <c r="PE20" s="0"/>
+      <c r="PF20" s="0"/>
+      <c r="PG20" s="0"/>
+      <c r="PH20" s="0"/>
+      <c r="PI20" s="0"/>
+      <c r="PJ20" s="0"/>
+      <c r="PK20" s="0"/>
+      <c r="PL20" s="0"/>
+      <c r="PM20" s="0"/>
+      <c r="PN20" s="0"/>
+      <c r="PO20" s="0"/>
+      <c r="PP20" s="0"/>
+      <c r="PQ20" s="0"/>
+      <c r="PR20" s="0"/>
+      <c r="PS20" s="0"/>
+      <c r="PT20" s="0"/>
+      <c r="PU20" s="0"/>
+      <c r="PV20" s="0"/>
+      <c r="PW20" s="0"/>
+      <c r="PX20" s="0"/>
+      <c r="PY20" s="0"/>
+      <c r="PZ20" s="0"/>
+      <c r="QA20" s="0"/>
+      <c r="QB20" s="0"/>
+      <c r="QC20" s="0"/>
+      <c r="QD20" s="0"/>
+      <c r="QE20" s="0"/>
+      <c r="QF20" s="0"/>
+      <c r="QG20" s="0"/>
+      <c r="QH20" s="0"/>
+      <c r="QI20" s="0"/>
+      <c r="QJ20" s="0"/>
+      <c r="QK20" s="0"/>
+      <c r="QL20" s="0"/>
+      <c r="QM20" s="0"/>
+      <c r="QN20" s="0"/>
+      <c r="QO20" s="0"/>
+      <c r="QP20" s="0"/>
+      <c r="QQ20" s="0"/>
+      <c r="QR20" s="0"/>
+      <c r="QS20" s="0"/>
+      <c r="QT20" s="0"/>
+      <c r="QU20" s="0"/>
+      <c r="QV20" s="0"/>
+      <c r="QW20" s="0"/>
+      <c r="QX20" s="0"/>
+      <c r="QY20" s="0"/>
+      <c r="QZ20" s="0"/>
+      <c r="RA20" s="0"/>
+      <c r="RB20" s="0"/>
+      <c r="RC20" s="0"/>
+      <c r="RD20" s="0"/>
+      <c r="RE20" s="0"/>
+      <c r="RF20" s="0"/>
+      <c r="RG20" s="0"/>
+      <c r="RH20" s="0"/>
+      <c r="RI20" s="0"/>
+      <c r="RJ20" s="0"/>
+      <c r="RK20" s="0"/>
+      <c r="RL20" s="0"/>
+      <c r="RM20" s="0"/>
+      <c r="RN20" s="0"/>
+      <c r="RO20" s="0"/>
+      <c r="RP20" s="0"/>
+      <c r="RQ20" s="0"/>
+      <c r="RR20" s="0"/>
+      <c r="RS20" s="0"/>
+      <c r="RT20" s="0"/>
+      <c r="RU20" s="0"/>
+      <c r="RV20" s="0"/>
+      <c r="RW20" s="0"/>
+      <c r="RX20" s="0"/>
+      <c r="RY20" s="0"/>
+      <c r="RZ20" s="0"/>
+      <c r="SA20" s="0"/>
+      <c r="SB20" s="0"/>
+      <c r="SC20" s="0"/>
+      <c r="SD20" s="0"/>
+      <c r="SE20" s="0"/>
+      <c r="SF20" s="0"/>
+      <c r="SG20" s="0"/>
+      <c r="SH20" s="0"/>
+      <c r="SI20" s="0"/>
+      <c r="SJ20" s="0"/>
+      <c r="SK20" s="0"/>
+      <c r="SL20" s="0"/>
+      <c r="SM20" s="0"/>
+      <c r="SN20" s="0"/>
+      <c r="SO20" s="0"/>
+      <c r="SP20" s="0"/>
+      <c r="SQ20" s="0"/>
+      <c r="SR20" s="0"/>
+      <c r="SS20" s="0"/>
+      <c r="ST20" s="0"/>
+      <c r="SU20" s="0"/>
+      <c r="SV20" s="0"/>
+      <c r="SW20" s="0"/>
+      <c r="SX20" s="0"/>
+      <c r="SY20" s="0"/>
+      <c r="SZ20" s="0"/>
+      <c r="TA20" s="0"/>
+      <c r="TB20" s="0"/>
+      <c r="TC20" s="0"/>
+      <c r="TD20" s="0"/>
+      <c r="TE20" s="0"/>
+      <c r="TF20" s="0"/>
+      <c r="TG20" s="0"/>
+      <c r="TH20" s="0"/>
+      <c r="TI20" s="0"/>
+      <c r="TJ20" s="0"/>
+      <c r="TK20" s="0"/>
+      <c r="TL20" s="0"/>
+      <c r="TM20" s="0"/>
+      <c r="TN20" s="0"/>
+      <c r="TO20" s="0"/>
+      <c r="TP20" s="0"/>
+      <c r="TQ20" s="0"/>
+      <c r="TR20" s="0"/>
+      <c r="TS20" s="0"/>
+      <c r="TT20" s="0"/>
+      <c r="TU20" s="0"/>
+      <c r="TV20" s="0"/>
+      <c r="TW20" s="0"/>
+      <c r="TX20" s="0"/>
+      <c r="TY20" s="0"/>
+      <c r="TZ20" s="0"/>
+      <c r="UA20" s="0"/>
+      <c r="UB20" s="0"/>
+      <c r="UC20" s="0"/>
+      <c r="UD20" s="0"/>
+      <c r="UE20" s="0"/>
+      <c r="UF20" s="0"/>
+      <c r="UG20" s="0"/>
+      <c r="UH20" s="0"/>
+      <c r="UI20" s="0"/>
+      <c r="UJ20" s="0"/>
+      <c r="UK20" s="0"/>
+      <c r="UL20" s="0"/>
+      <c r="UM20" s="0"/>
+      <c r="UN20" s="0"/>
+      <c r="UO20" s="0"/>
+      <c r="UP20" s="0"/>
+      <c r="UQ20" s="0"/>
+      <c r="UR20" s="0"/>
+      <c r="US20" s="0"/>
+      <c r="UT20" s="0"/>
+      <c r="UU20" s="0"/>
+      <c r="UV20" s="0"/>
+      <c r="UW20" s="0"/>
+      <c r="UX20" s="0"/>
+      <c r="UY20" s="0"/>
+      <c r="UZ20" s="0"/>
+      <c r="VA20" s="0"/>
+      <c r="VB20" s="0"/>
+      <c r="VC20" s="0"/>
+      <c r="VD20" s="0"/>
+      <c r="VE20" s="0"/>
+      <c r="VF20" s="0"/>
+      <c r="VG20" s="0"/>
+      <c r="VH20" s="0"/>
+      <c r="VI20" s="0"/>
+      <c r="VJ20" s="0"/>
+      <c r="VK20" s="0"/>
+      <c r="VL20" s="0"/>
+      <c r="VM20" s="0"/>
+      <c r="VN20" s="0"/>
+      <c r="VO20" s="0"/>
+      <c r="VP20" s="0"/>
+      <c r="VQ20" s="0"/>
+      <c r="VR20" s="0"/>
+      <c r="VS20" s="0"/>
+      <c r="VT20" s="0"/>
+      <c r="VU20" s="0"/>
+      <c r="VV20" s="0"/>
+      <c r="VW20" s="0"/>
+      <c r="VX20" s="0"/>
+      <c r="VY20" s="0"/>
+      <c r="VZ20" s="0"/>
+      <c r="WA20" s="0"/>
+      <c r="WB20" s="0"/>
+      <c r="WC20" s="0"/>
+      <c r="WD20" s="0"/>
+      <c r="WE20" s="0"/>
+      <c r="WF20" s="0"/>
+      <c r="WG20" s="0"/>
+      <c r="WH20" s="0"/>
+      <c r="WI20" s="0"/>
+      <c r="WJ20" s="0"/>
+      <c r="WK20" s="0"/>
+      <c r="WL20" s="0"/>
+      <c r="WM20" s="0"/>
+      <c r="WN20" s="0"/>
+      <c r="WO20" s="0"/>
+      <c r="WP20" s="0"/>
+      <c r="WQ20" s="0"/>
+      <c r="WR20" s="0"/>
+      <c r="WS20" s="0"/>
+      <c r="WT20" s="0"/>
+      <c r="WU20" s="0"/>
+      <c r="WV20" s="0"/>
+      <c r="WW20" s="0"/>
+      <c r="WX20" s="0"/>
+      <c r="WY20" s="0"/>
+      <c r="WZ20" s="0"/>
+      <c r="XA20" s="0"/>
+      <c r="XB20" s="0"/>
+      <c r="XC20" s="0"/>
+      <c r="XD20" s="0"/>
+      <c r="XE20" s="0"/>
+      <c r="XF20" s="0"/>
+      <c r="XG20" s="0"/>
+      <c r="XH20" s="0"/>
+      <c r="XI20" s="0"/>
+      <c r="XJ20" s="0"/>
+      <c r="XK20" s="0"/>
+      <c r="XL20" s="0"/>
+      <c r="XM20" s="0"/>
+      <c r="XN20" s="0"/>
+      <c r="XO20" s="0"/>
+      <c r="XP20" s="0"/>
+      <c r="XQ20" s="0"/>
+      <c r="XR20" s="0"/>
+      <c r="XS20" s="0"/>
+      <c r="XT20" s="0"/>
+      <c r="XU20" s="0"/>
+      <c r="XV20" s="0"/>
+      <c r="XW20" s="0"/>
+      <c r="XX20" s="0"/>
+      <c r="XY20" s="0"/>
+      <c r="XZ20" s="0"/>
+      <c r="YA20" s="0"/>
+      <c r="YB20" s="0"/>
+      <c r="YC20" s="0"/>
+      <c r="YD20" s="0"/>
+      <c r="YE20" s="0"/>
+      <c r="YF20" s="0"/>
+      <c r="YG20" s="0"/>
+      <c r="YH20" s="0"/>
+      <c r="YI20" s="0"/>
+      <c r="YJ20" s="0"/>
+      <c r="YK20" s="0"/>
+      <c r="YL20" s="0"/>
+      <c r="YM20" s="0"/>
+      <c r="YN20" s="0"/>
+      <c r="YO20" s="0"/>
+      <c r="YP20" s="0"/>
+      <c r="YQ20" s="0"/>
+      <c r="YR20" s="0"/>
+      <c r="YS20" s="0"/>
+      <c r="YT20" s="0"/>
+      <c r="YU20" s="0"/>
+      <c r="YV20" s="0"/>
+      <c r="YW20" s="0"/>
+      <c r="YX20" s="0"/>
+      <c r="YY20" s="0"/>
+      <c r="YZ20" s="0"/>
+      <c r="ZA20" s="0"/>
+      <c r="ZB20" s="0"/>
+      <c r="ZC20" s="0"/>
+      <c r="ZD20" s="0"/>
+      <c r="ZE20" s="0"/>
+      <c r="ZF20" s="0"/>
+      <c r="ZG20" s="0"/>
+      <c r="ZH20" s="0"/>
+      <c r="ZI20" s="0"/>
+      <c r="ZJ20" s="0"/>
+      <c r="ZK20" s="0"/>
+      <c r="ZL20" s="0"/>
+      <c r="ZM20" s="0"/>
+      <c r="ZN20" s="0"/>
+      <c r="ZO20" s="0"/>
+      <c r="ZP20" s="0"/>
+      <c r="ZQ20" s="0"/>
+      <c r="ZR20" s="0"/>
+      <c r="ZS20" s="0"/>
+      <c r="ZT20" s="0"/>
+      <c r="ZU20" s="0"/>
+      <c r="ZV20" s="0"/>
+      <c r="ZW20" s="0"/>
+      <c r="ZX20" s="0"/>
+      <c r="ZY20" s="0"/>
+      <c r="ZZ20" s="0"/>
+      <c r="AAA20" s="0"/>
+      <c r="AAB20" s="0"/>
+      <c r="AAC20" s="0"/>
+      <c r="AAD20" s="0"/>
+      <c r="AAE20" s="0"/>
+      <c r="AAF20" s="0"/>
+      <c r="AAG20" s="0"/>
+      <c r="AAH20" s="0"/>
+      <c r="AAI20" s="0"/>
+      <c r="AAJ20" s="0"/>
+      <c r="AAK20" s="0"/>
+      <c r="AAL20" s="0"/>
+      <c r="AAM20" s="0"/>
+      <c r="AAN20" s="0"/>
+      <c r="AAO20" s="0"/>
+      <c r="AAP20" s="0"/>
+      <c r="AAQ20" s="0"/>
+      <c r="AAR20" s="0"/>
+      <c r="AAS20" s="0"/>
+      <c r="AAT20" s="0"/>
+      <c r="AAU20" s="0"/>
+      <c r="AAV20" s="0"/>
+      <c r="AAW20" s="0"/>
+      <c r="AAX20" s="0"/>
+      <c r="AAY20" s="0"/>
+      <c r="AAZ20" s="0"/>
+      <c r="ABA20" s="0"/>
+      <c r="ABB20" s="0"/>
+      <c r="ABC20" s="0"/>
+      <c r="ABD20" s="0"/>
+      <c r="ABE20" s="0"/>
+      <c r="ABF20" s="0"/>
+      <c r="ABG20" s="0"/>
+      <c r="ABH20" s="0"/>
+      <c r="ABI20" s="0"/>
+      <c r="ABJ20" s="0"/>
+      <c r="ABK20" s="0"/>
+      <c r="ABL20" s="0"/>
+      <c r="ABM20" s="0"/>
+      <c r="ABN20" s="0"/>
+      <c r="ABO20" s="0"/>
+      <c r="ABP20" s="0"/>
+      <c r="ABQ20" s="0"/>
+      <c r="ABR20" s="0"/>
+      <c r="ABS20" s="0"/>
+      <c r="ABT20" s="0"/>
+      <c r="ABU20" s="0"/>
+      <c r="ABV20" s="0"/>
+      <c r="ABW20" s="0"/>
+      <c r="ABX20" s="0"/>
+      <c r="ABY20" s="0"/>
+      <c r="ABZ20" s="0"/>
+      <c r="ACA20" s="0"/>
+      <c r="ACB20" s="0"/>
+      <c r="ACC20" s="0"/>
+      <c r="ACD20" s="0"/>
+      <c r="ACE20" s="0"/>
+      <c r="ACF20" s="0"/>
+      <c r="ACG20" s="0"/>
+      <c r="ACH20" s="0"/>
+      <c r="ACI20" s="0"/>
+      <c r="ACJ20" s="0"/>
+      <c r="ACK20" s="0"/>
+      <c r="ACL20" s="0"/>
+      <c r="ACM20" s="0"/>
+      <c r="ACN20" s="0"/>
+      <c r="ACO20" s="0"/>
+      <c r="ACP20" s="0"/>
+      <c r="ACQ20" s="0"/>
+      <c r="ACR20" s="0"/>
+      <c r="ACS20" s="0"/>
+      <c r="ACT20" s="0"/>
+      <c r="ACU20" s="0"/>
+      <c r="ACV20" s="0"/>
+      <c r="ACW20" s="0"/>
+      <c r="ACX20" s="0"/>
+      <c r="ACY20" s="0"/>
+      <c r="ACZ20" s="0"/>
+      <c r="ADA20" s="0"/>
+      <c r="ADB20" s="0"/>
+      <c r="ADC20" s="0"/>
+      <c r="ADD20" s="0"/>
+      <c r="ADE20" s="0"/>
+      <c r="ADF20" s="0"/>
+      <c r="ADG20" s="0"/>
+      <c r="ADH20" s="0"/>
+      <c r="ADI20" s="0"/>
+      <c r="ADJ20" s="0"/>
+      <c r="ADK20" s="0"/>
+      <c r="ADL20" s="0"/>
+      <c r="ADM20" s="0"/>
+      <c r="ADN20" s="0"/>
+      <c r="ADO20" s="0"/>
+      <c r="ADP20" s="0"/>
+      <c r="ADQ20" s="0"/>
+      <c r="ADR20" s="0"/>
+      <c r="ADS20" s="0"/>
+      <c r="ADT20" s="0"/>
+      <c r="ADU20" s="0"/>
+      <c r="ADV20" s="0"/>
+      <c r="ADW20" s="0"/>
+      <c r="ADX20" s="0"/>
+      <c r="ADY20" s="0"/>
+      <c r="ADZ20" s="0"/>
+      <c r="AEA20" s="0"/>
+      <c r="AEB20" s="0"/>
+      <c r="AEC20" s="0"/>
+      <c r="AED20" s="0"/>
+      <c r="AEE20" s="0"/>
+      <c r="AEF20" s="0"/>
+      <c r="AEG20" s="0"/>
+      <c r="AEH20" s="0"/>
+      <c r="AEI20" s="0"/>
+      <c r="AEJ20" s="0"/>
+      <c r="AEK20" s="0"/>
+      <c r="AEL20" s="0"/>
+      <c r="AEM20" s="0"/>
+      <c r="AEN20" s="0"/>
+      <c r="AEO20" s="0"/>
+      <c r="AEP20" s="0"/>
+      <c r="AEQ20" s="0"/>
+      <c r="AER20" s="0"/>
+      <c r="AES20" s="0"/>
+      <c r="AET20" s="0"/>
+      <c r="AEU20" s="0"/>
+      <c r="AEV20" s="0"/>
+      <c r="AEW20" s="0"/>
+      <c r="AEX20" s="0"/>
+      <c r="AEY20" s="0"/>
+      <c r="AEZ20" s="0"/>
+      <c r="AFA20" s="0"/>
+      <c r="AFB20" s="0"/>
+      <c r="AFC20" s="0"/>
+      <c r="AFD20" s="0"/>
+      <c r="AFE20" s="0"/>
+      <c r="AFF20" s="0"/>
+      <c r="AFG20" s="0"/>
+      <c r="AFH20" s="0"/>
+      <c r="AFI20" s="0"/>
+      <c r="AFJ20" s="0"/>
+      <c r="AFK20" s="0"/>
+      <c r="AFL20" s="0"/>
+      <c r="AFM20" s="0"/>
+      <c r="AFN20" s="0"/>
+      <c r="AFO20" s="0"/>
+      <c r="AFP20" s="0"/>
+      <c r="AFQ20" s="0"/>
+      <c r="AFR20" s="0"/>
+      <c r="AFS20" s="0"/>
+      <c r="AFT20" s="0"/>
+      <c r="AFU20" s="0"/>
+      <c r="AFV20" s="0"/>
+      <c r="AFW20" s="0"/>
+      <c r="AFX20" s="0"/>
+      <c r="AFY20" s="0"/>
+      <c r="AFZ20" s="0"/>
+      <c r="AGA20" s="0"/>
+      <c r="AGB20" s="0"/>
+      <c r="AGC20" s="0"/>
+      <c r="AGD20" s="0"/>
+      <c r="AGE20" s="0"/>
+      <c r="AGF20" s="0"/>
+      <c r="AGG20" s="0"/>
+      <c r="AGH20" s="0"/>
+      <c r="AGI20" s="0"/>
+      <c r="AGJ20" s="0"/>
+      <c r="AGK20" s="0"/>
+      <c r="AGL20" s="0"/>
+      <c r="AGM20" s="0"/>
+      <c r="AGN20" s="0"/>
+      <c r="AGO20" s="0"/>
+      <c r="AGP20" s="0"/>
+      <c r="AGQ20" s="0"/>
+      <c r="AGR20" s="0"/>
+      <c r="AGS20" s="0"/>
+      <c r="AGT20" s="0"/>
+      <c r="AGU20" s="0"/>
+      <c r="AGV20" s="0"/>
+      <c r="AGW20" s="0"/>
+      <c r="AGX20" s="0"/>
+      <c r="AGY20" s="0"/>
+      <c r="AGZ20" s="0"/>
+      <c r="AHA20" s="0"/>
+      <c r="AHB20" s="0"/>
+      <c r="AHC20" s="0"/>
+      <c r="AHD20" s="0"/>
+      <c r="AHE20" s="0"/>
+      <c r="AHF20" s="0"/>
+      <c r="AHG20" s="0"/>
+      <c r="AHH20" s="0"/>
+      <c r="AHI20" s="0"/>
+      <c r="AHJ20" s="0"/>
+      <c r="AHK20" s="0"/>
+      <c r="AHL20" s="0"/>
+      <c r="AHM20" s="0"/>
+      <c r="AHN20" s="0"/>
+      <c r="AHO20" s="0"/>
+      <c r="AHP20" s="0"/>
+      <c r="AHQ20" s="0"/>
+      <c r="AHR20" s="0"/>
+      <c r="AHS20" s="0"/>
+      <c r="AHT20" s="0"/>
+      <c r="AHU20" s="0"/>
+      <c r="AHV20" s="0"/>
+      <c r="AHW20" s="0"/>
+      <c r="AHX20" s="0"/>
+      <c r="AHY20" s="0"/>
+      <c r="AHZ20" s="0"/>
+      <c r="AIA20" s="0"/>
+      <c r="AIB20" s="0"/>
+      <c r="AIC20" s="0"/>
+      <c r="AID20" s="0"/>
+      <c r="AIE20" s="0"/>
+      <c r="AIF20" s="0"/>
+      <c r="AIG20" s="0"/>
+      <c r="AIH20" s="0"/>
+      <c r="AII20" s="0"/>
+      <c r="AIJ20" s="0"/>
+      <c r="AIK20" s="0"/>
+      <c r="AIL20" s="0"/>
+      <c r="AIM20" s="0"/>
+      <c r="AIN20" s="0"/>
+      <c r="AIO20" s="0"/>
+      <c r="AIP20" s="0"/>
+      <c r="AIQ20" s="0"/>
+      <c r="AIR20" s="0"/>
+      <c r="AIS20" s="0"/>
+      <c r="AIT20" s="0"/>
+      <c r="AIU20" s="0"/>
+      <c r="AIV20" s="0"/>
+      <c r="AIW20" s="0"/>
+      <c r="AIX20" s="0"/>
+      <c r="AIY20" s="0"/>
+      <c r="AIZ20" s="0"/>
+      <c r="AJA20" s="0"/>
+      <c r="AJB20" s="0"/>
+      <c r="AJC20" s="0"/>
+      <c r="AJD20" s="0"/>
+      <c r="AJE20" s="0"/>
+      <c r="AJF20" s="0"/>
+      <c r="AJG20" s="0"/>
+      <c r="AJH20" s="0"/>
+      <c r="AJI20" s="0"/>
+      <c r="AJJ20" s="0"/>
+      <c r="AJK20" s="0"/>
+      <c r="AJL20" s="0"/>
+      <c r="AJM20" s="0"/>
+      <c r="AJN20" s="0"/>
+      <c r="AJO20" s="0"/>
+      <c r="AJP20" s="0"/>
+      <c r="AJQ20" s="0"/>
+      <c r="AJR20" s="0"/>
+      <c r="AJS20" s="0"/>
+      <c r="AJT20" s="0"/>
+      <c r="AJU20" s="0"/>
+      <c r="AJV20" s="0"/>
+      <c r="AJW20" s="0"/>
+      <c r="AJX20" s="0"/>
+      <c r="AJY20" s="0"/>
+      <c r="AJZ20" s="0"/>
+      <c r="AKA20" s="0"/>
+      <c r="AKB20" s="0"/>
+      <c r="AKC20" s="0"/>
+      <c r="AKD20" s="0"/>
+      <c r="AKE20" s="0"/>
+      <c r="AKF20" s="0"/>
+      <c r="AKG20" s="0"/>
+      <c r="AKH20" s="0"/>
+      <c r="AKI20" s="0"/>
+      <c r="AKJ20" s="0"/>
+      <c r="AKK20" s="0"/>
+      <c r="AKL20" s="0"/>
+      <c r="AKM20" s="0"/>
+      <c r="AKN20" s="0"/>
+      <c r="AKO20" s="0"/>
+      <c r="AKP20" s="0"/>
+      <c r="AKQ20" s="0"/>
+      <c r="AKR20" s="0"/>
+      <c r="AKS20" s="0"/>
+      <c r="AKT20" s="0"/>
+      <c r="AKU20" s="0"/>
+      <c r="AKV20" s="0"/>
+      <c r="AKW20" s="0"/>
+      <c r="AKX20" s="0"/>
+      <c r="AKY20" s="0"/>
+      <c r="AKZ20" s="0"/>
+      <c r="ALA20" s="0"/>
+      <c r="ALB20" s="0"/>
+      <c r="ALC20" s="0"/>
+      <c r="ALD20" s="0"/>
+      <c r="ALE20" s="0"/>
+      <c r="ALF20" s="0"/>
+      <c r="ALG20" s="0"/>
+      <c r="ALH20" s="0"/>
+      <c r="ALI20" s="0"/>
+      <c r="ALJ20" s="0"/>
+      <c r="ALK20" s="0"/>
+      <c r="ALL20" s="0"/>
+      <c r="ALM20" s="0"/>
+      <c r="ALN20" s="0"/>
+      <c r="ALO20" s="0"/>
+      <c r="ALP20" s="0"/>
+      <c r="ALQ20" s="0"/>
+      <c r="ALR20" s="0"/>
+      <c r="ALS20" s="0"/>
+      <c r="ALT20" s="0"/>
+      <c r="ALU20" s="0"/>
+      <c r="ALV20" s="0"/>
+      <c r="ALW20" s="0"/>
+      <c r="ALX20" s="0"/>
+      <c r="ALY20" s="0"/>
+      <c r="ALZ20" s="0"/>
+      <c r="AMA20" s="0"/>
+      <c r="AMB20" s="0"/>
+      <c r="AMC20" s="0"/>
+      <c r="AMD20" s="0"/>
+      <c r="AME20" s="0"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="21" t="n">
+        <v>44722</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>44722</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>44720</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>44726</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="n">
-        <v>44720</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="B30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>44726</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="n">
-        <v>44721</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>44721</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="21" t="n">
+        <v>44726</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -473,7 +1694,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="4" sqref="A13 A15 C13 C15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +1720,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="4" sqref="A13 A15 C13 C15 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -108,13 +108,121 @@
     <t xml:space="preserve">Метод first возвращает первый элемент из коллекции, который проходит указанную проверку истинности</t>
   </si>
   <si>
-    <t xml:space="preserve">Возвращать нужно либо объект, либо NULL.</t>
+    <t xml:space="preserve">Возвращать нужно либо данные, либо NULL.</t>
   </si>
   <si>
     <t xml:space="preserve">5'00“ </t>
   </si>
   <si>
     <t xml:space="preserve">См. все методы(в моделях, особенно Users)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: checkEmail -  return filter_var($email, FILTER_VALIDATE_EMAIL);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: checkName - return mb_strlen($name, 'UTF-8') &gt;= MIN_NAME_LENGTH;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">define('MIN_NAME_LENGTH', 2); // Мин. кол-во символов в имени пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: checkEmailExists -  return $user ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: checkNameExists -  return $user ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: checkPassword - return mb_strlen($password, 'UTF-8') &gt;= MIN_PASSWORD_LENGTH;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">define('MIN_PASSWORD_LENGTH', 6); // Мин. кол-во символов в пароле пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: register -  return $id ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: updateUser -  return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: getUserByEmail -   return  $user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: getUserById -   return $user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: getSubscribedUsers -   return $user;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: changePassword -  return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: changeRole -  return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: changeSubscription -  return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: getUsers -  return $users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments: addComment -  return $users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users: formatSize -   перенос в Helper::formatSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: вывод комментариев в статье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить корректность использования first()</t>
   </si>
 </sst>
 </file>
@@ -175,7 +283,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +300,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,7 +357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,6 +444,30 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,10 +547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ32"/>
+  <dimension ref="A2:AMJ53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,10 +1807,233 @@
         <v>29</v>
       </c>
       <c r="D32" s="21" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="34" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="37" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="47" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="21" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="50" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="21" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -213,7 +213,43 @@
     <t xml:space="preserve">13.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: addComment -  return $users;</t>
+    <t xml:space="preserve">Comments: addComment -  return $id ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comments::approveComment - return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comments::denyComment - return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comments::changeComment - return $result ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post: mailing -  return $id ? true : false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings: changeSetting -   return $result ? true : false;</t>
   </si>
   <si>
     <t xml:space="preserve">Users: formatSize -   перенос в Helper::formatSize</t>
@@ -223,6 +259,79 @@
   </si>
   <si>
     <t xml:space="preserve">Проверить корректность использования first()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View — отвечает за вывод шаблона и не должен содержать бизнес-логику!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6'00“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бизнес-логика должна быть в контроллерах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делаем это.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Правда её можно вынести в сервисы - /services/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6'40“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачем плодить лишние классы…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надо оставить один класс View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6'55“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'15“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вёрстка — шаблоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - убрать комментарии</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - использовать альтернативный синтаксис для if и foreach — endif, endforeach;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'50“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Его проще контролировать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: в админке если воспользоваться пагинацией, то ссылки в меню — неправильные</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">http://diplom-2-oop/admin-articles/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">admin-subscription</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -233,7 +342,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,8 +391,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,7 +409,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -304,8 +420,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,7 +485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +582,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,8 +602,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -495,7 +659,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -526,14 +690,14 @@
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -547,10 +711,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ53"/>
+  <dimension ref="A2:AMJ78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,7 +723,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="80.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="47.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="2" width="9.13"/>
   </cols>
   <sheetData>
@@ -1797,7 +1961,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="n">
+      <c r="A32" s="15" t="n">
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1806,10 +1970,10 @@
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="21" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1975,13 +2139,12 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="47" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="n">
+      <c r="A48" s="15" t="n">
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1990,50 +2153,240 @@
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="21" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26" t="n">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="50" s="24" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
+      <c r="D49" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="14" t="n">
+        <v>44727</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="n">
+      <c r="A51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="14" t="n">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="21" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>66</v>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="56" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="59" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="14" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="30" t="n">
+        <v>18</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="34" t="n">
+        <v>19</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="35" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -286,6 +286,51 @@
   </si>
   <si>
     <t xml:space="preserve">6'55“ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методы (все): index(),  method(), about(), contacts(),  rules()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiteController: бизнес-логика перенесена в контроллер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод article($id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleController : бизнес-логика перенесена в контроллер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод method()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенесен из SiteController в ArticleController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод post()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserController</t>
   </si>
   <si>
     <t xml:space="preserve">view </t>
@@ -333,14 +378,21 @@
       <t xml:space="preserve">admin-subscription</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Вывод типов методов в статье — вынести в отдельный файл в /layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homepage.php, article.php  ???</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-419]DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -399,7 +451,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +488,12 @@
         <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
@@ -485,12 +543,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,7 +560,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,7 +588,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,11 +600,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,15 +620,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,15 +640,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,40 +688,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -692,7 +770,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -711,10 +789,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ78"/>
+  <dimension ref="A2:AMJ91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,7 +801,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="80.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="47.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="50.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="2" width="9.13"/>
   </cols>
   <sheetData>
@@ -860,9 +938,9 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="0"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -1886,14 +1964,14 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="21" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="21" t="n">
+      <c r="D22" s="22" t="n">
         <v>44722</v>
       </c>
       <c r="E22" s="16"/>
@@ -1913,7 +1991,7 @@
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +2021,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="n">
         <v>11</v>
       </c>
@@ -1973,7 +2051,7 @@
       <c r="D32" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1988,7 +2066,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="34" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
@@ -2007,7 +2085,7 @@
       <c r="A35" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="14" t="n">
@@ -2018,14 +2096,14 @@
       <c r="A36" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
         <v>40</v>
       </c>
@@ -2066,7 +2144,7 @@
       <c r="A40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="14" t="n">
@@ -2077,7 +2155,7 @@
       <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="14" t="n">
@@ -2088,7 +2166,7 @@
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="14" t="n">
@@ -2132,7 +2210,7 @@
       <c r="A46" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="14" t="n">
@@ -2140,8 +2218,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="24"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="n">
@@ -2156,7 +2234,7 @@
       <c r="D48" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2205,8 +2283,8 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
-      <c r="D53" s="24"/>
+      <c r="A53" s="24"/>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="n">
@@ -2221,7 +2299,7 @@
       <c r="D54" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2236,10 +2314,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="56" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="n">
@@ -2254,7 +2331,7 @@
       <c r="D57" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2269,10 +2346,9 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="59" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="28"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="n">
@@ -2289,31 +2365,31 @@
       <c r="A62" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="26" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="n">
+      <c r="A65" s="27" t="n">
         <v>18</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="30" t="s">
         <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2339,54 +2415,147 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="34" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="33"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="37" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="38" t="n">
         <v>19</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="14" t="n">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="35" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="n">
+      <c r="B81" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D83" s="39" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31" t="s">
-        <v>96</v>
+      <c r="B88" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="31"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -327,10 +327,67 @@
     <t xml:space="preserve">18.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Метод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserController</t>
+    <t xml:space="preserve">Class UserController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод lk()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class LkView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  login()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class LoginView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  exit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  unsubscribe()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class UnsubscribeView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  subscription()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class SubscriptionView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  registration()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class RegistrationView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод  password()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class PasswordView</t>
   </si>
   <si>
     <t xml:space="preserve">view </t>
@@ -543,7 +600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,24 +733,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -789,10 +850,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ91"/>
+  <dimension ref="A2:AMJ98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,10 +2521,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="33"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
@@ -2484,78 +2544,179 @@
       <c r="A76" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C76" s="31"/>
-      <c r="D76" s="37" t="n">
+      <c r="D76" s="33" t="n">
         <v>44728</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="38" t="n">
+      <c r="B77" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="33" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E79" s="28"/>
+    </row>
+    <row r="80" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="37" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="37" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="14" t="n">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="39" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="29"/>
+      <c r="B88" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="40" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B91" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="41" t="s">
-        <v>113</v>
+      <c r="B98" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="31"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="42" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -90,6 +90,9 @@
     <t xml:space="preserve">См. как в моделях</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Users: iconv_strlen заменить на mb_strlen</t>
   </si>
   <si>
@@ -388,6 +391,33 @@
   </si>
   <si>
     <t xml:space="preserve">Удалить class PasswordView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App\Controllers\Admin\ArticleController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод adminArticles()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminArticlesView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App\Controllers\Admin\SiteController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App\Controllers\Admin\UserController</t>
   </si>
   <si>
     <t xml:space="preserve">view </t>
@@ -600,7 +630,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -693,6 +723,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,31 +767,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,10 +864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ98"/>
+  <dimension ref="A2:AMJ113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2052,150 +2066,152 @@
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="23" t="n">
+        <v>44729</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="24" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="14" t="n">
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="14" t="n">
         <v>44726</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="n">
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="14" t="n">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="14" t="n">
         <v>44726</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="n">
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="14" t="n">
         <v>44726</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="n">
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="14" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>44727</v>
       </c>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10"/>
       <c r="D34" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E34" s="18" t="s">
+    </row>
+    <row r="35" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>37</v>
-      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="14" t="n">
         <v>44727</v>
       </c>
+      <c r="E35" s="18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="10"/>
       <c r="D37" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E37" s="18" t="s">
+    </row>
+    <row r="38" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="14" t="n">
         <v>44727</v>
       </c>
+      <c r="E38" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D39" s="14" t="n">
         <v>44727</v>
@@ -2203,10 +2219,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="D40" s="14" t="n">
         <v>44727</v>
@@ -2214,10 +2230,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="D41" s="14" t="n">
         <v>44727</v>
@@ -2225,10 +2241,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="D42" s="14" t="n">
         <v>44727</v>
@@ -2236,10 +2252,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D43" s="14" t="n">
         <v>44727</v>
@@ -2247,10 +2263,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D44" s="14" t="n">
         <v>44727</v>
@@ -2258,10 +2274,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D45" s="14" t="n">
         <v>44727</v>
@@ -2269,53 +2285,53 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="D46" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>44727</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="n">
+      <c r="A48" s="26"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="14" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>63</v>
+      <c r="C49" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D49" s="14" t="n">
         <v>44727</v>
       </c>
+      <c r="E49" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D50" s="14" t="n">
         <v>44727</v>
@@ -2323,10 +2339,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D51" s="14" t="n">
         <v>44727</v>
@@ -2334,389 +2350,460 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D52" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="14" t="n">
+        <v>44727</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="n">
+      <c r="A54" s="26"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="14" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
+      <c r="C55" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D55" s="14" t="n">
         <v>44727</v>
       </c>
+      <c r="E55" s="25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="D56" s="25"/>
+      <c r="A56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="14" t="n">
+        <v>44727</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="n">
+      <c r="A57" s="26"/>
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="14" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>75</v>
+      <c r="C58" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>44727</v>
       </c>
+      <c r="E58" s="25" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="D59" s="25"/>
+      <c r="A59" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="14" t="n">
+        <v>44727</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="n">
+      <c r="A60" s="26"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="14" t="n">
+      <c r="B61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="14" t="n">
+      <c r="B63" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="14" t="n">
         <v>44727</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="n">
+      <c r="E63" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="B65" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="29" t="s">
+      <c r="B66" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="3" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
+      <c r="C69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="28" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32" t="n">
+      <c r="B70" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="23" t="n">
         <v>44728</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="15" t="s">
+      <c r="E70" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="33"/>
+      <c r="D72" s="23" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E72" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B72" s="28" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32" t="n">
+      <c r="B73" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="23" t="n">
         <v>44728</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24"/>
-      <c r="D73" s="25"/>
+      <c r="E73" s="30" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="28" t="s">
+      <c r="A74" s="26"/>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32" t="n">
+      <c r="B75" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="33"/>
+      <c r="D75" s="23" t="n">
         <v>44728</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
+      <c r="E75" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="33" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32" t="n">
+      <c r="C77" s="33"/>
+      <c r="D77" s="23" t="n">
         <v>44728</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="E77" s="30"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="33"/>
+      <c r="D78" s="23" t="n">
+        <v>44728</v>
+      </c>
+      <c r="E78" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B78" s="28" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32" t="n">
+      <c r="B79" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="23" t="n">
         <v>44728</v>
       </c>
-      <c r="E78" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21" t="s">
+      <c r="E79" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="28" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="33" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E79" s="28"/>
-    </row>
-    <row r="80" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="34" t="s">
+      <c r="B80" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="23" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E80" s="35" t="s">
+      <c r="B81" s="30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="34" t="s">
+      <c r="C81" s="33"/>
+      <c r="D81" s="23" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E81" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="35" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E81" s="35" t="s">
+      <c r="B82" s="30" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="34" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="23" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E82" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="35" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E82" s="35" t="s">
+      <c r="B83" s="30" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="83" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="34" t="s">
+      <c r="C83" s="33"/>
+      <c r="D83" s="23" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E83" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="35" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37" t="n">
-        <v>44728</v>
-      </c>
-      <c r="E83" s="35" t="s">
+      <c r="B84" s="30" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39" t="n">
+      <c r="C84" s="33"/>
+      <c r="D84" s="23" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="33"/>
+      <c r="D86" s="24" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="33"/>
+      <c r="D87" s="24" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="33"/>
+      <c r="D90" s="24" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="24" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="35" t="n">
         <v>19</v>
       </c>
-      <c r="B88" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="14" t="n">
+      <c r="B103" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="14" t="n">
         <v>44727</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D90" s="40" t="n">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="36" t="n">
         <v>44727</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24" t="n">
+      <c r="E105" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="B95" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="24" t="n">
+      <c r="B110" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="31"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="31"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="42" t="s">
-        <v>132</v>
+      <c r="B113" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="33"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -78,19 +78,34 @@
     <t xml:space="preserve">Комментарии к классам и методам — проверить, сделать однотипными.</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверить комменты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Model</t>
   </si>
   <si>
     <t xml:space="preserve">Комментарии к классам</t>
   </si>
   <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Controllers</t>
   </si>
   <si>
-    <t xml:space="preserve">См. как в моделях</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Admin</t>
+    <t xml:space="preserve">См. как в моделях: @package App\Controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Admin\Controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">См. как в моделях: @package App\Admin\Controllers</t>
   </si>
   <si>
     <t xml:space="preserve">Users: iconv_strlen заменить на mb_strlen</t>
@@ -466,6 +481,37 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: в админке если из Управления статьями перейти в статью на редактирование, то ссылки в меню — неправильные</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">http://diplom-2-oop/admin-cms/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">admin-subscription</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вывод типов методов в статье — вынести в отдельный файл в /layout</t>
   </si>
   <si>
@@ -481,7 +527,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -531,6 +577,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
@@ -553,14 +607,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFC9211E"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -571,8 +625,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC9211E"/>
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -630,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,72 +769,92 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -819,7 +893,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -864,10 +938,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ113"/>
+  <dimension ref="A2:AMJ114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2039,49 +2113,63 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="21" t="n">
+        <v>44729</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="21" t="n">
         <v>44722</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>44722</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
+      <c r="E23" s="22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="23" t="n">
+      <c r="A24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
+      <c r="E24" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="24" t="n">
+      <c r="A25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
+      <c r="E25" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,13 +2177,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D27" s="14" t="n">
         <v>44726</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="14" t="n">
         <v>44726</v>
@@ -2114,16 +2202,16 @@
         <v>11</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="14" t="n">
         <v>44726</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,24 +2219,24 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" s="14" t="n">
         <v>44727</v>
@@ -2156,25 +2244,25 @@
     </row>
     <row r="35" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>44727</v>
@@ -2182,10 +2270,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D37" s="14" t="n">
         <v>44727</v>
@@ -2193,25 +2281,25 @@
     </row>
     <row r="38" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D39" s="14" t="n">
         <v>44727</v>
@@ -2219,10 +2307,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D40" s="14" t="n">
         <v>44727</v>
@@ -2230,10 +2318,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D41" s="14" t="n">
         <v>44727</v>
@@ -2241,10 +2329,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D42" s="14" t="n">
         <v>44727</v>
@@ -2252,10 +2340,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D43" s="14" t="n">
         <v>44727</v>
@@ -2263,10 +2351,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D44" s="14" t="n">
         <v>44727</v>
@@ -2274,10 +2362,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D45" s="14" t="n">
         <v>44727</v>
@@ -2285,10 +2373,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D46" s="14" t="n">
         <v>44727</v>
@@ -2296,10 +2384,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D47" s="14" t="n">
         <v>44727</v>
@@ -2314,24 +2402,24 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D50" s="14" t="n">
         <v>44727</v>
@@ -2339,10 +2427,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D51" s="14" t="n">
         <v>44727</v>
@@ -2350,10 +2438,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D52" s="14" t="n">
         <v>44727</v>
@@ -2361,10 +2449,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D53" s="14" t="n">
         <v>44727</v>
@@ -2379,24 +2467,24 @@
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D55" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D56" s="14" t="n">
         <v>44727</v>
@@ -2411,24 +2499,24 @@
         <v>15</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D59" s="14" t="n">
         <v>44727</v>
@@ -2443,7 +2531,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D61" s="14" t="n">
         <v>44727</v>
@@ -2454,98 +2542,98 @@
         <v>17</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D63" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="B66" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="32" t="s">
-        <v>82</v>
+      <c r="B67" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="23" t="n">
+        <v>94</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>91</v>
+      <c r="E70" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="23" t="n">
+        <v>97</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>94</v>
+      <c r="E72" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E73" s="30" t="s">
-        <v>97</v>
+      <c r="E73" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,213 +2642,213 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="23" t="n">
+        <v>103</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E75" s="30" t="s">
-        <v>100</v>
+      <c r="E75" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="23" t="n">
+        <v>106</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="23" t="n">
+        <v>108</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E78" s="30" t="s">
-        <v>105</v>
+      <c r="E78" s="22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="23" t="n">
+        <v>111</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="21" t="n">
         <v>44728</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>108</v>
+      <c r="E79" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="23" t="n">
+        <v>114</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E80" s="30"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="23" t="n">
+        <v>116</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>113</v>
+      <c r="E81" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="23" t="n">
+        <v>119</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>116</v>
+      <c r="E82" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="23" t="n">
+        <v>122</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>119</v>
+      <c r="E83" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="23" t="n">
+        <v>125</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>122</v>
+      <c r="E84" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="24" t="n">
+      <c r="A86" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="33" t="n">
         <v>44729</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="24" t="n">
+      <c r="A87" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="33" t="n">
         <v>44729</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>127</v>
+      <c r="E87" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="24" t="n">
+      <c r="A90" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="33" t="n">
         <v>44729</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="24" t="n">
+      <c r="A95" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="33" t="n">
         <v>44729</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="35" t="n">
         <v>19</v>
       </c>
-      <c r="B103" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30" t="s">
-        <v>134</v>
+      <c r="B103" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D104" s="14" t="n">
         <v>44727</v>
@@ -2768,16 +2856,16 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D105" s="36" t="n">
         <v>44727</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,28 +2873,51 @@
         <v>20</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110" s="31"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="38" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="C110" s="30"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="30"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="38"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="43" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E112" r:id="rId1" display="http://diplom-2-oop/admin-cms/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -423,16 +423,67 @@
     <t xml:space="preserve">Удалить class AdminArticlesView</t>
   </si>
   <si>
+    <t xml:space="preserve">18.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод adminComments()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminCommentsView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод adminCMS()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminCMSView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод articleDelete()</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.6</t>
   </si>
   <si>
     <t xml:space="preserve">App\Controllers\Admin\SiteController</t>
   </si>
   <si>
+    <t xml:space="preserve">18.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод additionalSettings()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminSettingsView</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.7</t>
   </si>
   <si>
     <t xml:space="preserve">App\Controllers\Admin\UserController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод adminUsers()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminUsersView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод adminSubscription()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удалить class AdminSubscriptionView</t>
   </si>
   <si>
     <t xml:space="preserve">view </t>
@@ -487,26 +538,7 @@
     <t xml:space="preserve">BUG: в админке если из Управления статьями перейти в статью на редактирование, то ссылки в меню — неправильные</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">http://diplom-2-oop/admin-cms/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">admin-subscription</t>
-    </r>
+    <t xml:space="preserve">http://diplom-2-oop/admin-cms/admin-subscription</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -684,7 +716,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,7 +853,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,24 +869,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -938,10 +954,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ114"/>
+  <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2772,151 +2788,251 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>129</v>
       </c>
       <c r="C86" s="23"/>
-      <c r="D86" s="33" t="n">
+      <c r="D86" s="21" t="n">
         <v>44729</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="23"/>
-      <c r="D87" s="33" t="n">
+      <c r="D87" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>134</v>
+      <c r="A90" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="C90" s="23"/>
-      <c r="D90" s="33" t="n">
-        <v>44729</v>
-      </c>
-      <c r="E90" s="34" t="s">
+      <c r="D90" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E90" s="22"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E92" s="24" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="33" t="n">
-        <v>44729</v>
+        <v>44730</v>
       </c>
       <c r="E95" s="34" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="33" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="23"/>
+      <c r="D97" s="33" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="35" t="n">
+        <v>19</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="14" t="n">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="36" t="n">
+        <v>44727</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="35" t="n">
-        <v>19</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>138</v>
-      </c>
+      <c r="A103" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="30"/>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D104" s="14" t="n">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D105" s="36" t="n">
-        <v>44727</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="38"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="30"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E112" r:id="rId1" display="http://diplom-2-oop/admin-cms/"/>
+    <hyperlink ref="E105" r:id="rId1" display="http://diplom-2-oop/admin-cms/admin-subscription"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2936,7 +3052,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D92 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2962,7 +3078,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D92 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="174">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -541,7 +541,52 @@
     <t xml:space="preserve">http://diplom-2-oop/admin-cms/admin-subscription</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
+    <t xml:space="preserve">view\errors\errors-list.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибки валидации вынесены в отдельный файл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: в админке не выводится title </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">isCurrentUrl(string $url = '/'): bool     {         return </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">preg_match('~^' . $url . '~'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, $_SERVER["REQUEST_URI"] );</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
   </si>
   <si>
     <t xml:space="preserve">Вывод типов методов в статье — вынести в отдельный файл в /layout</t>
@@ -645,14 +690,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -716,7 +761,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -849,28 +894,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -956,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D103" activeCellId="0" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2891,29 +2940,29 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>147</v>
       </c>
       <c r="C95" s="23"/>
-      <c r="D95" s="33" t="n">
+      <c r="D95" s="21" t="n">
         <v>44730</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>149</v>
       </c>
       <c r="C96" s="23"/>
-      <c r="D96" s="33" t="n">
+      <c r="D96" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E96" s="22" t="s">
@@ -2921,22 +2970,22 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>152</v>
       </c>
       <c r="C97" s="23"/>
-      <c r="D97" s="33" t="n">
-        <v>44730</v>
+      <c r="D97" s="21" t="n">
+        <v>44733</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="35" t="n">
+      <c r="A99" s="32" t="n">
         <v>19</v>
       </c>
       <c r="B99" s="22" t="s">
@@ -2965,22 +3014,24 @@
       <c r="C101" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="36" t="n">
+      <c r="D101" s="33" t="n">
         <v>44727</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26" t="n">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="34" t="n">
         <v>20</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="35" t="s">
         <v>161</v>
       </c>
       <c r="C103" s="30"/>
-      <c r="D103" s="22"/>
+      <c r="D103" s="36" t="n">
+        <v>44733</v>
+      </c>
       <c r="E103" s="22" t="s">
         <v>162</v>
       </c>
@@ -2989,7 +3040,7 @@
       <c r="A105" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="35" t="s">
         <v>164</v>
       </c>
       <c r="C105" s="30"/>
@@ -3000,22 +3051,1071 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="30"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="38" t="n">
+        <v>22</v>
+      </c>
+      <c r="B107" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="C107" s="39"/>
+      <c r="D107" s="21" t="n">
+        <v>44730</v>
+      </c>
+      <c r="E107" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="39" t="s">
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+      <c r="H107" s="0"/>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0"/>
+      <c r="L107" s="0"/>
+      <c r="M107" s="0"/>
+      <c r="N107" s="0"/>
+      <c r="O107" s="0"/>
+      <c r="P107" s="0"/>
+      <c r="Q107" s="0"/>
+      <c r="R107" s="0"/>
+      <c r="S107" s="0"/>
+      <c r="T107" s="0"/>
+      <c r="U107" s="0"/>
+      <c r="V107" s="0"/>
+      <c r="W107" s="0"/>
+      <c r="X107" s="0"/>
+      <c r="Y107" s="0"/>
+      <c r="Z107" s="0"/>
+      <c r="AA107" s="0"/>
+      <c r="AB107" s="0"/>
+      <c r="AC107" s="0"/>
+      <c r="AD107" s="0"/>
+      <c r="AE107" s="0"/>
+      <c r="AF107" s="0"/>
+      <c r="AG107" s="0"/>
+      <c r="AH107" s="0"/>
+      <c r="AI107" s="0"/>
+      <c r="AJ107" s="0"/>
+      <c r="AK107" s="0"/>
+      <c r="AL107" s="0"/>
+      <c r="AM107" s="0"/>
+      <c r="AN107" s="0"/>
+      <c r="AO107" s="0"/>
+      <c r="AP107" s="0"/>
+      <c r="AQ107" s="0"/>
+      <c r="AR107" s="0"/>
+      <c r="AS107" s="0"/>
+      <c r="AT107" s="0"/>
+      <c r="AU107" s="0"/>
+      <c r="AV107" s="0"/>
+      <c r="AW107" s="0"/>
+      <c r="AX107" s="0"/>
+      <c r="AY107" s="0"/>
+      <c r="AZ107" s="0"/>
+      <c r="BA107" s="0"/>
+      <c r="BB107" s="0"/>
+      <c r="BC107" s="0"/>
+      <c r="BD107" s="0"/>
+      <c r="BE107" s="0"/>
+      <c r="BF107" s="0"/>
+      <c r="BG107" s="0"/>
+      <c r="BH107" s="0"/>
+      <c r="BI107" s="0"/>
+      <c r="BJ107" s="0"/>
+      <c r="BK107" s="0"/>
+      <c r="BL107" s="0"/>
+      <c r="BM107" s="0"/>
+      <c r="BN107" s="0"/>
+      <c r="BO107" s="0"/>
+      <c r="BP107" s="0"/>
+      <c r="BQ107" s="0"/>
+      <c r="BR107" s="0"/>
+      <c r="BS107" s="0"/>
+      <c r="BT107" s="0"/>
+      <c r="BU107" s="0"/>
+      <c r="BV107" s="0"/>
+      <c r="BW107" s="0"/>
+      <c r="BX107" s="0"/>
+      <c r="BY107" s="0"/>
+      <c r="BZ107" s="0"/>
+      <c r="CA107" s="0"/>
+      <c r="CB107" s="0"/>
+      <c r="CC107" s="0"/>
+      <c r="CD107" s="0"/>
+      <c r="CE107" s="0"/>
+      <c r="CF107" s="0"/>
+      <c r="CG107" s="0"/>
+      <c r="CH107" s="0"/>
+      <c r="CI107" s="0"/>
+      <c r="CJ107" s="0"/>
+      <c r="CK107" s="0"/>
+      <c r="CL107" s="0"/>
+      <c r="CM107" s="0"/>
+      <c r="CN107" s="0"/>
+      <c r="CO107" s="0"/>
+      <c r="CP107" s="0"/>
+      <c r="CQ107" s="0"/>
+      <c r="CR107" s="0"/>
+      <c r="CS107" s="0"/>
+      <c r="CT107" s="0"/>
+      <c r="CU107" s="0"/>
+      <c r="CV107" s="0"/>
+      <c r="CW107" s="0"/>
+      <c r="CX107" s="0"/>
+      <c r="CY107" s="0"/>
+      <c r="CZ107" s="0"/>
+      <c r="DA107" s="0"/>
+      <c r="DB107" s="0"/>
+      <c r="DC107" s="0"/>
+      <c r="DD107" s="0"/>
+      <c r="DE107" s="0"/>
+      <c r="DF107" s="0"/>
+      <c r="DG107" s="0"/>
+      <c r="DH107" s="0"/>
+      <c r="DI107" s="0"/>
+      <c r="DJ107" s="0"/>
+      <c r="DK107" s="0"/>
+      <c r="DL107" s="0"/>
+      <c r="DM107" s="0"/>
+      <c r="DN107" s="0"/>
+      <c r="DO107" s="0"/>
+      <c r="DP107" s="0"/>
+      <c r="DQ107" s="0"/>
+      <c r="DR107" s="0"/>
+      <c r="DS107" s="0"/>
+      <c r="DT107" s="0"/>
+      <c r="DU107" s="0"/>
+      <c r="DV107" s="0"/>
+      <c r="DW107" s="0"/>
+      <c r="DX107" s="0"/>
+      <c r="DY107" s="0"/>
+      <c r="DZ107" s="0"/>
+      <c r="EA107" s="0"/>
+      <c r="EB107" s="0"/>
+      <c r="EC107" s="0"/>
+      <c r="ED107" s="0"/>
+      <c r="EE107" s="0"/>
+      <c r="EF107" s="0"/>
+      <c r="EG107" s="0"/>
+      <c r="EH107" s="0"/>
+      <c r="EI107" s="0"/>
+      <c r="EJ107" s="0"/>
+      <c r="EK107" s="0"/>
+      <c r="EL107" s="0"/>
+      <c r="EM107" s="0"/>
+      <c r="EN107" s="0"/>
+      <c r="EO107" s="0"/>
+      <c r="EP107" s="0"/>
+      <c r="EQ107" s="0"/>
+      <c r="ER107" s="0"/>
+      <c r="ES107" s="0"/>
+      <c r="ET107" s="0"/>
+      <c r="EU107" s="0"/>
+      <c r="EV107" s="0"/>
+      <c r="EW107" s="0"/>
+      <c r="EX107" s="0"/>
+      <c r="EY107" s="0"/>
+      <c r="EZ107" s="0"/>
+      <c r="FA107" s="0"/>
+      <c r="FB107" s="0"/>
+      <c r="FC107" s="0"/>
+      <c r="FD107" s="0"/>
+      <c r="FE107" s="0"/>
+      <c r="FF107" s="0"/>
+      <c r="FG107" s="0"/>
+      <c r="FH107" s="0"/>
+      <c r="FI107" s="0"/>
+      <c r="FJ107" s="0"/>
+      <c r="FK107" s="0"/>
+      <c r="FL107" s="0"/>
+      <c r="FM107" s="0"/>
+      <c r="FN107" s="0"/>
+      <c r="FO107" s="0"/>
+      <c r="FP107" s="0"/>
+      <c r="FQ107" s="0"/>
+      <c r="FR107" s="0"/>
+      <c r="FS107" s="0"/>
+      <c r="FT107" s="0"/>
+      <c r="FU107" s="0"/>
+      <c r="FV107" s="0"/>
+      <c r="FW107" s="0"/>
+      <c r="FX107" s="0"/>
+      <c r="FY107" s="0"/>
+      <c r="FZ107" s="0"/>
+      <c r="GA107" s="0"/>
+      <c r="GB107" s="0"/>
+      <c r="GC107" s="0"/>
+      <c r="GD107" s="0"/>
+      <c r="GE107" s="0"/>
+      <c r="GF107" s="0"/>
+      <c r="GG107" s="0"/>
+      <c r="GH107" s="0"/>
+      <c r="GI107" s="0"/>
+      <c r="GJ107" s="0"/>
+      <c r="GK107" s="0"/>
+      <c r="GL107" s="0"/>
+      <c r="GM107" s="0"/>
+      <c r="GN107" s="0"/>
+      <c r="GO107" s="0"/>
+      <c r="GP107" s="0"/>
+      <c r="GQ107" s="0"/>
+      <c r="GR107" s="0"/>
+      <c r="GS107" s="0"/>
+      <c r="GT107" s="0"/>
+      <c r="GU107" s="0"/>
+      <c r="GV107" s="0"/>
+      <c r="GW107" s="0"/>
+      <c r="GX107" s="0"/>
+      <c r="GY107" s="0"/>
+      <c r="GZ107" s="0"/>
+      <c r="HA107" s="0"/>
+      <c r="HB107" s="0"/>
+      <c r="HC107" s="0"/>
+      <c r="HD107" s="0"/>
+      <c r="HE107" s="0"/>
+      <c r="HF107" s="0"/>
+      <c r="HG107" s="0"/>
+      <c r="HH107" s="0"/>
+      <c r="HI107" s="0"/>
+      <c r="HJ107" s="0"/>
+      <c r="HK107" s="0"/>
+      <c r="HL107" s="0"/>
+      <c r="HM107" s="0"/>
+      <c r="HN107" s="0"/>
+      <c r="HO107" s="0"/>
+      <c r="HP107" s="0"/>
+      <c r="HQ107" s="0"/>
+      <c r="HR107" s="0"/>
+      <c r="HS107" s="0"/>
+      <c r="HT107" s="0"/>
+      <c r="HU107" s="0"/>
+      <c r="HV107" s="0"/>
+      <c r="HW107" s="0"/>
+      <c r="HX107" s="0"/>
+      <c r="HY107" s="0"/>
+      <c r="HZ107" s="0"/>
+      <c r="IA107" s="0"/>
+      <c r="IB107" s="0"/>
+      <c r="IC107" s="0"/>
+      <c r="ID107" s="0"/>
+      <c r="IE107" s="0"/>
+      <c r="IF107" s="0"/>
+      <c r="IG107" s="0"/>
+      <c r="IH107" s="0"/>
+      <c r="II107" s="0"/>
+      <c r="IJ107" s="0"/>
+      <c r="IK107" s="0"/>
+      <c r="IL107" s="0"/>
+      <c r="IM107" s="0"/>
+      <c r="IN107" s="0"/>
+      <c r="IO107" s="0"/>
+      <c r="IP107" s="0"/>
+      <c r="IQ107" s="0"/>
+      <c r="IR107" s="0"/>
+      <c r="IS107" s="0"/>
+      <c r="IT107" s="0"/>
+      <c r="IU107" s="0"/>
+      <c r="IV107" s="0"/>
+      <c r="IW107" s="0"/>
+      <c r="IX107" s="0"/>
+      <c r="IY107" s="0"/>
+      <c r="IZ107" s="0"/>
+      <c r="JA107" s="0"/>
+      <c r="JB107" s="0"/>
+      <c r="JC107" s="0"/>
+      <c r="JD107" s="0"/>
+      <c r="JE107" s="0"/>
+      <c r="JF107" s="0"/>
+      <c r="JG107" s="0"/>
+      <c r="JH107" s="0"/>
+      <c r="JI107" s="0"/>
+      <c r="JJ107" s="0"/>
+      <c r="JK107" s="0"/>
+      <c r="JL107" s="0"/>
+      <c r="JM107" s="0"/>
+      <c r="JN107" s="0"/>
+      <c r="JO107" s="0"/>
+      <c r="JP107" s="0"/>
+      <c r="JQ107" s="0"/>
+      <c r="JR107" s="0"/>
+      <c r="JS107" s="0"/>
+      <c r="JT107" s="0"/>
+      <c r="JU107" s="0"/>
+      <c r="JV107" s="0"/>
+      <c r="JW107" s="0"/>
+      <c r="JX107" s="0"/>
+      <c r="JY107" s="0"/>
+      <c r="JZ107" s="0"/>
+      <c r="KA107" s="0"/>
+      <c r="KB107" s="0"/>
+      <c r="KC107" s="0"/>
+      <c r="KD107" s="0"/>
+      <c r="KE107" s="0"/>
+      <c r="KF107" s="0"/>
+      <c r="KG107" s="0"/>
+      <c r="KH107" s="0"/>
+      <c r="KI107" s="0"/>
+      <c r="KJ107" s="0"/>
+      <c r="KK107" s="0"/>
+      <c r="KL107" s="0"/>
+      <c r="KM107" s="0"/>
+      <c r="KN107" s="0"/>
+      <c r="KO107" s="0"/>
+      <c r="KP107" s="0"/>
+      <c r="KQ107" s="0"/>
+      <c r="KR107" s="0"/>
+      <c r="KS107" s="0"/>
+      <c r="KT107" s="0"/>
+      <c r="KU107" s="0"/>
+      <c r="KV107" s="0"/>
+      <c r="KW107" s="0"/>
+      <c r="KX107" s="0"/>
+      <c r="KY107" s="0"/>
+      <c r="KZ107" s="0"/>
+      <c r="LA107" s="0"/>
+      <c r="LB107" s="0"/>
+      <c r="LC107" s="0"/>
+      <c r="LD107" s="0"/>
+      <c r="LE107" s="0"/>
+      <c r="LF107" s="0"/>
+      <c r="LG107" s="0"/>
+      <c r="LH107" s="0"/>
+      <c r="LI107" s="0"/>
+      <c r="LJ107" s="0"/>
+      <c r="LK107" s="0"/>
+      <c r="LL107" s="0"/>
+      <c r="LM107" s="0"/>
+      <c r="LN107" s="0"/>
+      <c r="LO107" s="0"/>
+      <c r="LP107" s="0"/>
+      <c r="LQ107" s="0"/>
+      <c r="LR107" s="0"/>
+      <c r="LS107" s="0"/>
+      <c r="LT107" s="0"/>
+      <c r="LU107" s="0"/>
+      <c r="LV107" s="0"/>
+      <c r="LW107" s="0"/>
+      <c r="LX107" s="0"/>
+      <c r="LY107" s="0"/>
+      <c r="LZ107" s="0"/>
+      <c r="MA107" s="0"/>
+      <c r="MB107" s="0"/>
+      <c r="MC107" s="0"/>
+      <c r="MD107" s="0"/>
+      <c r="ME107" s="0"/>
+      <c r="MF107" s="0"/>
+      <c r="MG107" s="0"/>
+      <c r="MH107" s="0"/>
+      <c r="MI107" s="0"/>
+      <c r="MJ107" s="0"/>
+      <c r="MK107" s="0"/>
+      <c r="ML107" s="0"/>
+      <c r="MM107" s="0"/>
+      <c r="MN107" s="0"/>
+      <c r="MO107" s="0"/>
+      <c r="MP107" s="0"/>
+      <c r="MQ107" s="0"/>
+      <c r="MR107" s="0"/>
+      <c r="MS107" s="0"/>
+      <c r="MT107" s="0"/>
+      <c r="MU107" s="0"/>
+      <c r="MV107" s="0"/>
+      <c r="MW107" s="0"/>
+      <c r="MX107" s="0"/>
+      <c r="MY107" s="0"/>
+      <c r="MZ107" s="0"/>
+      <c r="NA107" s="0"/>
+      <c r="NB107" s="0"/>
+      <c r="NC107" s="0"/>
+      <c r="ND107" s="0"/>
+      <c r="NE107" s="0"/>
+      <c r="NF107" s="0"/>
+      <c r="NG107" s="0"/>
+      <c r="NH107" s="0"/>
+      <c r="NI107" s="0"/>
+      <c r="NJ107" s="0"/>
+      <c r="NK107" s="0"/>
+      <c r="NL107" s="0"/>
+      <c r="NM107" s="0"/>
+      <c r="NN107" s="0"/>
+      <c r="NO107" s="0"/>
+      <c r="NP107" s="0"/>
+      <c r="NQ107" s="0"/>
+      <c r="NR107" s="0"/>
+      <c r="NS107" s="0"/>
+      <c r="NT107" s="0"/>
+      <c r="NU107" s="0"/>
+      <c r="NV107" s="0"/>
+      <c r="NW107" s="0"/>
+      <c r="NX107" s="0"/>
+      <c r="NY107" s="0"/>
+      <c r="NZ107" s="0"/>
+      <c r="OA107" s="0"/>
+      <c r="OB107" s="0"/>
+      <c r="OC107" s="0"/>
+      <c r="OD107" s="0"/>
+      <c r="OE107" s="0"/>
+      <c r="OF107" s="0"/>
+      <c r="OG107" s="0"/>
+      <c r="OH107" s="0"/>
+      <c r="OI107" s="0"/>
+      <c r="OJ107" s="0"/>
+      <c r="OK107" s="0"/>
+      <c r="OL107" s="0"/>
+      <c r="OM107" s="0"/>
+      <c r="ON107" s="0"/>
+      <c r="OO107" s="0"/>
+      <c r="OP107" s="0"/>
+      <c r="OQ107" s="0"/>
+      <c r="OR107" s="0"/>
+      <c r="OS107" s="0"/>
+      <c r="OT107" s="0"/>
+      <c r="OU107" s="0"/>
+      <c r="OV107" s="0"/>
+      <c r="OW107" s="0"/>
+      <c r="OX107" s="0"/>
+      <c r="OY107" s="0"/>
+      <c r="OZ107" s="0"/>
+      <c r="PA107" s="0"/>
+      <c r="PB107" s="0"/>
+      <c r="PC107" s="0"/>
+      <c r="PD107" s="0"/>
+      <c r="PE107" s="0"/>
+      <c r="PF107" s="0"/>
+      <c r="PG107" s="0"/>
+      <c r="PH107" s="0"/>
+      <c r="PI107" s="0"/>
+      <c r="PJ107" s="0"/>
+      <c r="PK107" s="0"/>
+      <c r="PL107" s="0"/>
+      <c r="PM107" s="0"/>
+      <c r="PN107" s="0"/>
+      <c r="PO107" s="0"/>
+      <c r="PP107" s="0"/>
+      <c r="PQ107" s="0"/>
+      <c r="PR107" s="0"/>
+      <c r="PS107" s="0"/>
+      <c r="PT107" s="0"/>
+      <c r="PU107" s="0"/>
+      <c r="PV107" s="0"/>
+      <c r="PW107" s="0"/>
+      <c r="PX107" s="0"/>
+      <c r="PY107" s="0"/>
+      <c r="PZ107" s="0"/>
+      <c r="QA107" s="0"/>
+      <c r="QB107" s="0"/>
+      <c r="QC107" s="0"/>
+      <c r="QD107" s="0"/>
+      <c r="QE107" s="0"/>
+      <c r="QF107" s="0"/>
+      <c r="QG107" s="0"/>
+      <c r="QH107" s="0"/>
+      <c r="QI107" s="0"/>
+      <c r="QJ107" s="0"/>
+      <c r="QK107" s="0"/>
+      <c r="QL107" s="0"/>
+      <c r="QM107" s="0"/>
+      <c r="QN107" s="0"/>
+      <c r="QO107" s="0"/>
+      <c r="QP107" s="0"/>
+      <c r="QQ107" s="0"/>
+      <c r="QR107" s="0"/>
+      <c r="QS107" s="0"/>
+      <c r="QT107" s="0"/>
+      <c r="QU107" s="0"/>
+      <c r="QV107" s="0"/>
+      <c r="QW107" s="0"/>
+      <c r="QX107" s="0"/>
+      <c r="QY107" s="0"/>
+      <c r="QZ107" s="0"/>
+      <c r="RA107" s="0"/>
+      <c r="RB107" s="0"/>
+      <c r="RC107" s="0"/>
+      <c r="RD107" s="0"/>
+      <c r="RE107" s="0"/>
+      <c r="RF107" s="0"/>
+      <c r="RG107" s="0"/>
+      <c r="RH107" s="0"/>
+      <c r="RI107" s="0"/>
+      <c r="RJ107" s="0"/>
+      <c r="RK107" s="0"/>
+      <c r="RL107" s="0"/>
+      <c r="RM107" s="0"/>
+      <c r="RN107" s="0"/>
+      <c r="RO107" s="0"/>
+      <c r="RP107" s="0"/>
+      <c r="RQ107" s="0"/>
+      <c r="RR107" s="0"/>
+      <c r="RS107" s="0"/>
+      <c r="RT107" s="0"/>
+      <c r="RU107" s="0"/>
+      <c r="RV107" s="0"/>
+      <c r="RW107" s="0"/>
+      <c r="RX107" s="0"/>
+      <c r="RY107" s="0"/>
+      <c r="RZ107" s="0"/>
+      <c r="SA107" s="0"/>
+      <c r="SB107" s="0"/>
+      <c r="SC107" s="0"/>
+      <c r="SD107" s="0"/>
+      <c r="SE107" s="0"/>
+      <c r="SF107" s="0"/>
+      <c r="SG107" s="0"/>
+      <c r="SH107" s="0"/>
+      <c r="SI107" s="0"/>
+      <c r="SJ107" s="0"/>
+      <c r="SK107" s="0"/>
+      <c r="SL107" s="0"/>
+      <c r="SM107" s="0"/>
+      <c r="SN107" s="0"/>
+      <c r="SO107" s="0"/>
+      <c r="SP107" s="0"/>
+      <c r="SQ107" s="0"/>
+      <c r="SR107" s="0"/>
+      <c r="SS107" s="0"/>
+      <c r="ST107" s="0"/>
+      <c r="SU107" s="0"/>
+      <c r="SV107" s="0"/>
+      <c r="SW107" s="0"/>
+      <c r="SX107" s="0"/>
+      <c r="SY107" s="0"/>
+      <c r="SZ107" s="0"/>
+      <c r="TA107" s="0"/>
+      <c r="TB107" s="0"/>
+      <c r="TC107" s="0"/>
+      <c r="TD107" s="0"/>
+      <c r="TE107" s="0"/>
+      <c r="TF107" s="0"/>
+      <c r="TG107" s="0"/>
+      <c r="TH107" s="0"/>
+      <c r="TI107" s="0"/>
+      <c r="TJ107" s="0"/>
+      <c r="TK107" s="0"/>
+      <c r="TL107" s="0"/>
+      <c r="TM107" s="0"/>
+      <c r="TN107" s="0"/>
+      <c r="TO107" s="0"/>
+      <c r="TP107" s="0"/>
+      <c r="TQ107" s="0"/>
+      <c r="TR107" s="0"/>
+      <c r="TS107" s="0"/>
+      <c r="TT107" s="0"/>
+      <c r="TU107" s="0"/>
+      <c r="TV107" s="0"/>
+      <c r="TW107" s="0"/>
+      <c r="TX107" s="0"/>
+      <c r="TY107" s="0"/>
+      <c r="TZ107" s="0"/>
+      <c r="UA107" s="0"/>
+      <c r="UB107" s="0"/>
+      <c r="UC107" s="0"/>
+      <c r="UD107" s="0"/>
+      <c r="UE107" s="0"/>
+      <c r="UF107" s="0"/>
+      <c r="UG107" s="0"/>
+      <c r="UH107" s="0"/>
+      <c r="UI107" s="0"/>
+      <c r="UJ107" s="0"/>
+      <c r="UK107" s="0"/>
+      <c r="UL107" s="0"/>
+      <c r="UM107" s="0"/>
+      <c r="UN107" s="0"/>
+      <c r="UO107" s="0"/>
+      <c r="UP107" s="0"/>
+      <c r="UQ107" s="0"/>
+      <c r="UR107" s="0"/>
+      <c r="US107" s="0"/>
+      <c r="UT107" s="0"/>
+      <c r="UU107" s="0"/>
+      <c r="UV107" s="0"/>
+      <c r="UW107" s="0"/>
+      <c r="UX107" s="0"/>
+      <c r="UY107" s="0"/>
+      <c r="UZ107" s="0"/>
+      <c r="VA107" s="0"/>
+      <c r="VB107" s="0"/>
+      <c r="VC107" s="0"/>
+      <c r="VD107" s="0"/>
+      <c r="VE107" s="0"/>
+      <c r="VF107" s="0"/>
+      <c r="VG107" s="0"/>
+      <c r="VH107" s="0"/>
+      <c r="VI107" s="0"/>
+      <c r="VJ107" s="0"/>
+      <c r="VK107" s="0"/>
+      <c r="VL107" s="0"/>
+      <c r="VM107" s="0"/>
+      <c r="VN107" s="0"/>
+      <c r="VO107" s="0"/>
+      <c r="VP107" s="0"/>
+      <c r="VQ107" s="0"/>
+      <c r="VR107" s="0"/>
+      <c r="VS107" s="0"/>
+      <c r="VT107" s="0"/>
+      <c r="VU107" s="0"/>
+      <c r="VV107" s="0"/>
+      <c r="VW107" s="0"/>
+      <c r="VX107" s="0"/>
+      <c r="VY107" s="0"/>
+      <c r="VZ107" s="0"/>
+      <c r="WA107" s="0"/>
+      <c r="WB107" s="0"/>
+      <c r="WC107" s="0"/>
+      <c r="WD107" s="0"/>
+      <c r="WE107" s="0"/>
+      <c r="WF107" s="0"/>
+      <c r="WG107" s="0"/>
+      <c r="WH107" s="0"/>
+      <c r="WI107" s="0"/>
+      <c r="WJ107" s="0"/>
+      <c r="WK107" s="0"/>
+      <c r="WL107" s="0"/>
+      <c r="WM107" s="0"/>
+      <c r="WN107" s="0"/>
+      <c r="WO107" s="0"/>
+      <c r="WP107" s="0"/>
+      <c r="WQ107" s="0"/>
+      <c r="WR107" s="0"/>
+      <c r="WS107" s="0"/>
+      <c r="WT107" s="0"/>
+      <c r="WU107" s="0"/>
+      <c r="WV107" s="0"/>
+      <c r="WW107" s="0"/>
+      <c r="WX107" s="0"/>
+      <c r="WY107" s="0"/>
+      <c r="WZ107" s="0"/>
+      <c r="XA107" s="0"/>
+      <c r="XB107" s="0"/>
+      <c r="XC107" s="0"/>
+      <c r="XD107" s="0"/>
+      <c r="XE107" s="0"/>
+      <c r="XF107" s="0"/>
+      <c r="XG107" s="0"/>
+      <c r="XH107" s="0"/>
+      <c r="XI107" s="0"/>
+      <c r="XJ107" s="0"/>
+      <c r="XK107" s="0"/>
+      <c r="XL107" s="0"/>
+      <c r="XM107" s="0"/>
+      <c r="XN107" s="0"/>
+      <c r="XO107" s="0"/>
+      <c r="XP107" s="0"/>
+      <c r="XQ107" s="0"/>
+      <c r="XR107" s="0"/>
+      <c r="XS107" s="0"/>
+      <c r="XT107" s="0"/>
+      <c r="XU107" s="0"/>
+      <c r="XV107" s="0"/>
+      <c r="XW107" s="0"/>
+      <c r="XX107" s="0"/>
+      <c r="XY107" s="0"/>
+      <c r="XZ107" s="0"/>
+      <c r="YA107" s="0"/>
+      <c r="YB107" s="0"/>
+      <c r="YC107" s="0"/>
+      <c r="YD107" s="0"/>
+      <c r="YE107" s="0"/>
+      <c r="YF107" s="0"/>
+      <c r="YG107" s="0"/>
+      <c r="YH107" s="0"/>
+      <c r="YI107" s="0"/>
+      <c r="YJ107" s="0"/>
+      <c r="YK107" s="0"/>
+      <c r="YL107" s="0"/>
+      <c r="YM107" s="0"/>
+      <c r="YN107" s="0"/>
+      <c r="YO107" s="0"/>
+      <c r="YP107" s="0"/>
+      <c r="YQ107" s="0"/>
+      <c r="YR107" s="0"/>
+      <c r="YS107" s="0"/>
+      <c r="YT107" s="0"/>
+      <c r="YU107" s="0"/>
+      <c r="YV107" s="0"/>
+      <c r="YW107" s="0"/>
+      <c r="YX107" s="0"/>
+      <c r="YY107" s="0"/>
+      <c r="YZ107" s="0"/>
+      <c r="ZA107" s="0"/>
+      <c r="ZB107" s="0"/>
+      <c r="ZC107" s="0"/>
+      <c r="ZD107" s="0"/>
+      <c r="ZE107" s="0"/>
+      <c r="ZF107" s="0"/>
+      <c r="ZG107" s="0"/>
+      <c r="ZH107" s="0"/>
+      <c r="ZI107" s="0"/>
+      <c r="ZJ107" s="0"/>
+      <c r="ZK107" s="0"/>
+      <c r="ZL107" s="0"/>
+      <c r="ZM107" s="0"/>
+      <c r="ZN107" s="0"/>
+      <c r="ZO107" s="0"/>
+      <c r="ZP107" s="0"/>
+      <c r="ZQ107" s="0"/>
+      <c r="ZR107" s="0"/>
+      <c r="ZS107" s="0"/>
+      <c r="ZT107" s="0"/>
+      <c r="ZU107" s="0"/>
+      <c r="ZV107" s="0"/>
+      <c r="ZW107" s="0"/>
+      <c r="ZX107" s="0"/>
+      <c r="ZY107" s="0"/>
+      <c r="ZZ107" s="0"/>
+      <c r="AAA107" s="0"/>
+      <c r="AAB107" s="0"/>
+      <c r="AAC107" s="0"/>
+      <c r="AAD107" s="0"/>
+      <c r="AAE107" s="0"/>
+      <c r="AAF107" s="0"/>
+      <c r="AAG107" s="0"/>
+      <c r="AAH107" s="0"/>
+      <c r="AAI107" s="0"/>
+      <c r="AAJ107" s="0"/>
+      <c r="AAK107" s="0"/>
+      <c r="AAL107" s="0"/>
+      <c r="AAM107" s="0"/>
+      <c r="AAN107" s="0"/>
+      <c r="AAO107" s="0"/>
+      <c r="AAP107" s="0"/>
+      <c r="AAQ107" s="0"/>
+      <c r="AAR107" s="0"/>
+      <c r="AAS107" s="0"/>
+      <c r="AAT107" s="0"/>
+      <c r="AAU107" s="0"/>
+      <c r="AAV107" s="0"/>
+      <c r="AAW107" s="0"/>
+      <c r="AAX107" s="0"/>
+      <c r="AAY107" s="0"/>
+      <c r="AAZ107" s="0"/>
+      <c r="ABA107" s="0"/>
+      <c r="ABB107" s="0"/>
+      <c r="ABC107" s="0"/>
+      <c r="ABD107" s="0"/>
+      <c r="ABE107" s="0"/>
+      <c r="ABF107" s="0"/>
+      <c r="ABG107" s="0"/>
+      <c r="ABH107" s="0"/>
+      <c r="ABI107" s="0"/>
+      <c r="ABJ107" s="0"/>
+      <c r="ABK107" s="0"/>
+      <c r="ABL107" s="0"/>
+      <c r="ABM107" s="0"/>
+      <c r="ABN107" s="0"/>
+      <c r="ABO107" s="0"/>
+      <c r="ABP107" s="0"/>
+      <c r="ABQ107" s="0"/>
+      <c r="ABR107" s="0"/>
+      <c r="ABS107" s="0"/>
+      <c r="ABT107" s="0"/>
+      <c r="ABU107" s="0"/>
+      <c r="ABV107" s="0"/>
+      <c r="ABW107" s="0"/>
+      <c r="ABX107" s="0"/>
+      <c r="ABY107" s="0"/>
+      <c r="ABZ107" s="0"/>
+      <c r="ACA107" s="0"/>
+      <c r="ACB107" s="0"/>
+      <c r="ACC107" s="0"/>
+      <c r="ACD107" s="0"/>
+      <c r="ACE107" s="0"/>
+      <c r="ACF107" s="0"/>
+      <c r="ACG107" s="0"/>
+      <c r="ACH107" s="0"/>
+      <c r="ACI107" s="0"/>
+      <c r="ACJ107" s="0"/>
+      <c r="ACK107" s="0"/>
+      <c r="ACL107" s="0"/>
+      <c r="ACM107" s="0"/>
+      <c r="ACN107" s="0"/>
+      <c r="ACO107" s="0"/>
+      <c r="ACP107" s="0"/>
+      <c r="ACQ107" s="0"/>
+      <c r="ACR107" s="0"/>
+      <c r="ACS107" s="0"/>
+      <c r="ACT107" s="0"/>
+      <c r="ACU107" s="0"/>
+      <c r="ACV107" s="0"/>
+      <c r="ACW107" s="0"/>
+      <c r="ACX107" s="0"/>
+      <c r="ACY107" s="0"/>
+      <c r="ACZ107" s="0"/>
+      <c r="ADA107" s="0"/>
+      <c r="ADB107" s="0"/>
+      <c r="ADC107" s="0"/>
+      <c r="ADD107" s="0"/>
+      <c r="ADE107" s="0"/>
+      <c r="ADF107" s="0"/>
+      <c r="ADG107" s="0"/>
+      <c r="ADH107" s="0"/>
+      <c r="ADI107" s="0"/>
+      <c r="ADJ107" s="0"/>
+      <c r="ADK107" s="0"/>
+      <c r="ADL107" s="0"/>
+      <c r="ADM107" s="0"/>
+      <c r="ADN107" s="0"/>
+      <c r="ADO107" s="0"/>
+      <c r="ADP107" s="0"/>
+      <c r="ADQ107" s="0"/>
+      <c r="ADR107" s="0"/>
+      <c r="ADS107" s="0"/>
+      <c r="ADT107" s="0"/>
+      <c r="ADU107" s="0"/>
+      <c r="ADV107" s="0"/>
+      <c r="ADW107" s="0"/>
+      <c r="ADX107" s="0"/>
+      <c r="ADY107" s="0"/>
+      <c r="ADZ107" s="0"/>
+      <c r="AEA107" s="0"/>
+      <c r="AEB107" s="0"/>
+      <c r="AEC107" s="0"/>
+      <c r="AED107" s="0"/>
+      <c r="AEE107" s="0"/>
+      <c r="AEF107" s="0"/>
+      <c r="AEG107" s="0"/>
+      <c r="AEH107" s="0"/>
+      <c r="AEI107" s="0"/>
+      <c r="AEJ107" s="0"/>
+      <c r="AEK107" s="0"/>
+      <c r="AEL107" s="0"/>
+      <c r="AEM107" s="0"/>
+      <c r="AEN107" s="0"/>
+      <c r="AEO107" s="0"/>
+      <c r="AEP107" s="0"/>
+      <c r="AEQ107" s="0"/>
+      <c r="AER107" s="0"/>
+      <c r="AES107" s="0"/>
+      <c r="AET107" s="0"/>
+      <c r="AEU107" s="0"/>
+      <c r="AEV107" s="0"/>
+      <c r="AEW107" s="0"/>
+      <c r="AEX107" s="0"/>
+      <c r="AEY107" s="0"/>
+      <c r="AEZ107" s="0"/>
+      <c r="AFA107" s="0"/>
+      <c r="AFB107" s="0"/>
+      <c r="AFC107" s="0"/>
+      <c r="AFD107" s="0"/>
+      <c r="AFE107" s="0"/>
+      <c r="AFF107" s="0"/>
+      <c r="AFG107" s="0"/>
+      <c r="AFH107" s="0"/>
+      <c r="AFI107" s="0"/>
+      <c r="AFJ107" s="0"/>
+      <c r="AFK107" s="0"/>
+      <c r="AFL107" s="0"/>
+      <c r="AFM107" s="0"/>
+      <c r="AFN107" s="0"/>
+      <c r="AFO107" s="0"/>
+      <c r="AFP107" s="0"/>
+      <c r="AFQ107" s="0"/>
+      <c r="AFR107" s="0"/>
+      <c r="AFS107" s="0"/>
+      <c r="AFT107" s="0"/>
+      <c r="AFU107" s="0"/>
+      <c r="AFV107" s="0"/>
+      <c r="AFW107" s="0"/>
+      <c r="AFX107" s="0"/>
+      <c r="AFY107" s="0"/>
+      <c r="AFZ107" s="0"/>
+      <c r="AGA107" s="0"/>
+      <c r="AGB107" s="0"/>
+      <c r="AGC107" s="0"/>
+      <c r="AGD107" s="0"/>
+      <c r="AGE107" s="0"/>
+      <c r="AGF107" s="0"/>
+      <c r="AGG107" s="0"/>
+      <c r="AGH107" s="0"/>
+      <c r="AGI107" s="0"/>
+      <c r="AGJ107" s="0"/>
+      <c r="AGK107" s="0"/>
+      <c r="AGL107" s="0"/>
+      <c r="AGM107" s="0"/>
+      <c r="AGN107" s="0"/>
+      <c r="AGO107" s="0"/>
+      <c r="AGP107" s="0"/>
+      <c r="AGQ107" s="0"/>
+      <c r="AGR107" s="0"/>
+      <c r="AGS107" s="0"/>
+      <c r="AGT107" s="0"/>
+      <c r="AGU107" s="0"/>
+      <c r="AGV107" s="0"/>
+      <c r="AGW107" s="0"/>
+      <c r="AGX107" s="0"/>
+      <c r="AGY107" s="0"/>
+      <c r="AGZ107" s="0"/>
+      <c r="AHA107" s="0"/>
+      <c r="AHB107" s="0"/>
+      <c r="AHC107" s="0"/>
+      <c r="AHD107" s="0"/>
+      <c r="AHE107" s="0"/>
+      <c r="AHF107" s="0"/>
+      <c r="AHG107" s="0"/>
+      <c r="AHH107" s="0"/>
+      <c r="AHI107" s="0"/>
+      <c r="AHJ107" s="0"/>
+      <c r="AHK107" s="0"/>
+      <c r="AHL107" s="0"/>
+      <c r="AHM107" s="0"/>
+      <c r="AHN107" s="0"/>
+      <c r="AHO107" s="0"/>
+      <c r="AHP107" s="0"/>
+      <c r="AHQ107" s="0"/>
+      <c r="AHR107" s="0"/>
+      <c r="AHS107" s="0"/>
+      <c r="AHT107" s="0"/>
+      <c r="AHU107" s="0"/>
+      <c r="AHV107" s="0"/>
+      <c r="AHW107" s="0"/>
+      <c r="AHX107" s="0"/>
+      <c r="AHY107" s="0"/>
+      <c r="AHZ107" s="0"/>
+      <c r="AIA107" s="0"/>
+      <c r="AIB107" s="0"/>
+      <c r="AIC107" s="0"/>
+      <c r="AID107" s="0"/>
+      <c r="AIE107" s="0"/>
+      <c r="AIF107" s="0"/>
+      <c r="AIG107" s="0"/>
+      <c r="AIH107" s="0"/>
+      <c r="AII107" s="0"/>
+      <c r="AIJ107" s="0"/>
+      <c r="AIK107" s="0"/>
+      <c r="AIL107" s="0"/>
+      <c r="AIM107" s="0"/>
+      <c r="AIN107" s="0"/>
+      <c r="AIO107" s="0"/>
+      <c r="AIP107" s="0"/>
+      <c r="AIQ107" s="0"/>
+      <c r="AIR107" s="0"/>
+      <c r="AIS107" s="0"/>
+      <c r="AIT107" s="0"/>
+      <c r="AIU107" s="0"/>
+      <c r="AIV107" s="0"/>
+      <c r="AIW107" s="0"/>
+      <c r="AIX107" s="0"/>
+      <c r="AIY107" s="0"/>
+      <c r="AIZ107" s="0"/>
+      <c r="AJA107" s="0"/>
+      <c r="AJB107" s="0"/>
+      <c r="AJC107" s="0"/>
+      <c r="AJD107" s="0"/>
+      <c r="AJE107" s="0"/>
+      <c r="AJF107" s="0"/>
+      <c r="AJG107" s="0"/>
+      <c r="AJH107" s="0"/>
+      <c r="AJI107" s="0"/>
+      <c r="AJJ107" s="0"/>
+      <c r="AJK107" s="0"/>
+      <c r="AJL107" s="0"/>
+      <c r="AJM107" s="0"/>
+      <c r="AJN107" s="0"/>
+      <c r="AJO107" s="0"/>
+      <c r="AJP107" s="0"/>
+      <c r="AJQ107" s="0"/>
+      <c r="AJR107" s="0"/>
+      <c r="AJS107" s="0"/>
+      <c r="AJT107" s="0"/>
+      <c r="AJU107" s="0"/>
+      <c r="AJV107" s="0"/>
+      <c r="AJW107" s="0"/>
+      <c r="AJX107" s="0"/>
+      <c r="AJY107" s="0"/>
+      <c r="AJZ107" s="0"/>
+      <c r="AKA107" s="0"/>
+      <c r="AKB107" s="0"/>
+      <c r="AKC107" s="0"/>
+      <c r="AKD107" s="0"/>
+      <c r="AKE107" s="0"/>
+      <c r="AKF107" s="0"/>
+      <c r="AKG107" s="0"/>
+      <c r="AKH107" s="0"/>
+      <c r="AKI107" s="0"/>
+      <c r="AKJ107" s="0"/>
+      <c r="AKK107" s="0"/>
+      <c r="AKL107" s="0"/>
+      <c r="AKM107" s="0"/>
+      <c r="AKN107" s="0"/>
+      <c r="AKO107" s="0"/>
+      <c r="AKP107" s="0"/>
+      <c r="AKQ107" s="0"/>
+      <c r="AKR107" s="0"/>
+      <c r="AKS107" s="0"/>
+      <c r="AKT107" s="0"/>
+      <c r="AKU107" s="0"/>
+      <c r="AKV107" s="0"/>
+      <c r="AKW107" s="0"/>
+      <c r="AKX107" s="0"/>
+      <c r="AKY107" s="0"/>
+      <c r="AKZ107" s="0"/>
+      <c r="ALA107" s="0"/>
+      <c r="ALB107" s="0"/>
+      <c r="ALC107" s="0"/>
+      <c r="ALD107" s="0"/>
+      <c r="ALE107" s="0"/>
+      <c r="ALF107" s="0"/>
+      <c r="ALG107" s="0"/>
+      <c r="ALH107" s="0"/>
+      <c r="ALI107" s="0"/>
+      <c r="ALJ107" s="0"/>
+      <c r="ALK107" s="0"/>
+      <c r="ALL107" s="0"/>
+      <c r="ALM107" s="0"/>
+      <c r="ALN107" s="0"/>
+      <c r="ALO107" s="0"/>
+      <c r="ALP107" s="0"/>
+      <c r="ALQ107" s="0"/>
+      <c r="ALR107" s="0"/>
+      <c r="ALS107" s="0"/>
+      <c r="ALT107" s="0"/>
+      <c r="ALU107" s="0"/>
+      <c r="ALV107" s="0"/>
+      <c r="ALW107" s="0"/>
+      <c r="ALX107" s="0"/>
+      <c r="ALY107" s="0"/>
+      <c r="ALZ107" s="0"/>
+      <c r="AMA107" s="0"/>
+      <c r="AMB107" s="0"/>
+      <c r="AMC107" s="0"/>
+      <c r="AMD107" s="0"/>
+      <c r="AME107" s="0"/>
+      <c r="AMF107" s="0"/>
+      <c r="AMG107" s="0"/>
+      <c r="AMH107" s="0"/>
+      <c r="AMI107" s="0"/>
+      <c r="AMJ107" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
         <v>168</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="21" t="n">
+        <v>44733</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="40" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3052,7 +4152,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D92 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D103 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3078,7 +4178,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D92 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D103 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t xml:space="preserve">BUG: в админке если воспользоваться пагинацией, то ссылки в меню — неправильные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заработало после исправления бага №23</t>
   </si>
   <si>
     <r>
@@ -582,7 +585,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">, $_SERVER["REQUEST_URI"] );</t>
+      <t xml:space="preserve">, $_SERVER["REQUEST_URI"] ); 
++ в index  - $router→get($key,… для админки</t>
     </r>
   </si>
   <si>
@@ -592,7 +596,7 @@
     <t xml:space="preserve">Вывод типов методов в статье — вынести в отдельный файл в /layout</t>
   </si>
   <si>
-    <t xml:space="preserve">homepage.php, article.php  ???</t>
+    <t xml:space="preserve">homepage.php, article.php  ? - пока не надо, там разные классы в html-тегах</t>
   </si>
 </sst>
 </file>
@@ -669,7 +673,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,12 +696,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -761,7 +759,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -898,16 +896,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -922,7 +916,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,7 +1000,7 @@
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D103" activeCellId="0" sqref="D103"/>
+      <selection pane="topLeft" activeCell="E112" activeCellId="0" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,54 +3015,61 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="34" t="n">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="36" t="n">
+      <c r="C103" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B105" s="35" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="35"/>
+    </row>
+    <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="22"/>
+      <c r="B105" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="35"/>
+      <c r="D105" s="21" t="n">
+        <v>44733</v>
+      </c>
       <c r="E105" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26"/>
-      <c r="B106" s="37"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="30"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="38" t="n">
+      <c r="A107" s="37" t="n">
         <v>22</v>
       </c>
-      <c r="B107" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="39"/>
+      <c r="B107" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="38"/>
       <c r="D107" s="21" t="n">
         <v>44730</v>
       </c>
-      <c r="E107" s="39" t="s">
-        <v>167</v>
+      <c r="E107" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="F107" s="0"/>
       <c r="G107" s="0"/>
@@ -4090,32 +4091,32 @@
       <c r="AMI107" s="0"/>
       <c r="AMJ107" s="0"/>
     </row>
-    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="35" t="s">
         <v>169</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="22"/>
-      <c r="E111" s="40" t="s">
-        <v>173</v>
+      <c r="E111" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4131,6 +4132,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C103:C105"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E105" r:id="rId1" display="http://diplom-2-oop/admin-cms/admin-subscription"/>
   </hyperlinks>
@@ -4152,7 +4156,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D103 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4178,7 +4182,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D103 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Answer_2.xlsx
+++ b/Answer_2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">28 мая 2022, 13:23</t>
   </si>
   <si>
+    <t xml:space="preserve">Видео</t>
+  </si>
+  <si>
     <t xml:space="preserve">Добрый день, Юрий!</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Метод first возвращает первый элемент из коллекции, который проходит указанную проверку истинности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'</t>
   </si>
   <si>
     <t xml:space="preserve">Возвращать нужно либо данные, либо NULL.</t>
@@ -776,6 +782,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,10 +808,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -999,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E112" activeCellId="0" sqref="E112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1022,47 +1028,50 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="n">
         <v>44720</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,14 +1079,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="14" t="n">
         <v>44720</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="14" t="n">
@@ -1098,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="14" t="n">
@@ -1111,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="14" t="n">
@@ -1124,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="14" t="n">
@@ -1137,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="14" t="n">
@@ -2176,59 +2185,59 @@
         <v>8</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="21" t="n">
         <v>44722</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,13 +2245,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="14" t="n">
         <v>44726</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="14" t="n">
         <v>44726</v>
@@ -2261,16 +2270,21 @@
         <v>11</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="14" t="n">
         <v>44726</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2278,24 +2292,24 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="14" t="n">
         <v>44727</v>
@@ -2303,25 +2317,25 @@
     </row>
     <row r="35" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>44727</v>
@@ -2329,10 +2343,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37" s="14" t="n">
         <v>44727</v>
@@ -2340,25 +2354,25 @@
     </row>
     <row r="38" s="18" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D39" s="14" t="n">
         <v>44727</v>
@@ -2366,10 +2380,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D40" s="14" t="n">
         <v>44727</v>
@@ -2377,10 +2391,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" s="14" t="n">
         <v>44727</v>
@@ -2388,10 +2402,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42" s="14" t="n">
         <v>44727</v>
@@ -2399,10 +2413,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" s="14" t="n">
         <v>44727</v>
@@ -2410,10 +2424,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D44" s="14" t="n">
         <v>44727</v>
@@ -2421,10 +2435,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D45" s="14" t="n">
         <v>44727</v>
@@ -2432,10 +2446,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D46" s="14" t="n">
         <v>44727</v>
@@ -2443,10 +2457,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D47" s="14" t="n">
         <v>44727</v>
@@ -2461,24 +2475,24 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D49" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" s="14" t="n">
         <v>44727</v>
@@ -2486,10 +2500,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D51" s="14" t="n">
         <v>44727</v>
@@ -2497,10 +2511,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52" s="14" t="n">
         <v>44727</v>
@@ -2508,10 +2522,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D53" s="14" t="n">
         <v>44727</v>
@@ -2526,24 +2540,24 @@
         <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D55" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" s="14" t="n">
         <v>44727</v>
@@ -2558,24 +2572,24 @@
         <v>15</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D59" s="14" t="n">
         <v>44727</v>
@@ -2590,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D61" s="14" t="n">
         <v>44727</v>
@@ -2601,13 +2615,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D63" s="14" t="n">
         <v>44727</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,84 +2629,84 @@
         <v>18</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,25 +2715,25 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="21" t="n">
@@ -2729,40 +2743,40 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="21" t="n">
         <v>44728</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="21" t="n">
@@ -2772,130 +2786,130 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C84" s="23"/>
       <c r="D84" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="21" t="n">
         <v>44729</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C88" s="23"/>
       <c r="D88" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C89" s="23"/>
       <c r="D89" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C90" s="23"/>
       <c r="D90" s="21" t="n">
@@ -2905,77 +2919,77 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C92" s="23"/>
       <c r="D92" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C93" s="23"/>
       <c r="D93" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C95" s="23"/>
       <c r="D95" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C97" s="23"/>
       <c r="D97" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,19 +2997,19 @@
         <v>19</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D100" s="14" t="n">
         <v>44727</v>
@@ -3003,16 +3017,16 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D101" s="33" t="n">
         <v>44727</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3020,16 +3034,16 @@
         <v>20</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D103" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,17 +3051,17 @@
     </row>
     <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,14 +3076,14 @@
         <v>22</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="21" t="n">
         <v>44730</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F107" s="0"/>
       <c r="G107" s="0"/>
@@ -4093,30 +4107,30 @@
     </row>
     <row r="109" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C109" s="30"/>
       <c r="D109" s="21" t="n">
         <v>44733</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C111" s="23"/>
       <c r="D111" s="22"/>
       <c r="E111" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
